--- a/Poker_Chip_Tracker.xlsx
+++ b/Poker_Chip_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianrogg/PycharmProjects/Spade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9C8B0-4D07-3E45-AF46-F01BBCD4DD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD87560-59F2-824F-BF54-A68A236489F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="43">
   <si>
     <t>5-point chips</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Eliah</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -2637,9 +2640,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -2672,16 +2675,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$44:$N$44</c:f>
+              <c:f>Overview!$D$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>18.600000000000001</c:v>
                 </c:pt>
@@ -2714,6 +2720,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>41.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2753,9 +2762,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -2788,16 +2797,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$45:$N$45</c:f>
+              <c:f>Overview!$D$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-16.75</c:v>
                 </c:pt>
@@ -2829,6 +2841,9 @@
                   <c:v>-40.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>-70.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>-70.849999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -2869,9 +2884,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -2904,16 +2919,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$46:$N$46</c:f>
+              <c:f>Overview!$D$46:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2945,6 +2963,9 @@
                   <c:v>-34.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>-39.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>-39.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -2985,9 +3006,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3020,16 +3041,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$47:$N$47</c:f>
+              <c:f>Overview!$D$47:$O$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -3062,6 +3086,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-33.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,9 +3128,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3136,16 +3163,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$48:$N$48</c:f>
+              <c:f>Overview!$D$48:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-17</c:v>
                 </c:pt>
@@ -3178,6 +3208,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>66.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,9 +3250,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3252,16 +3285,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$49:$N$49</c:f>
+              <c:f>Overview!$D$49:$O$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3293,6 +3329,9 @@
                   <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3335,9 +3374,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3370,16 +3409,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$50:$N$50</c:f>
+              <c:f>Overview!$D$50:$O$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>11.15</c:v>
                 </c:pt>
@@ -3412,6 +3454,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4500000000000028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3453,9 +3498,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$N$43</c:f>
+              <c:f>Overview!$D$43:$O$43</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3488,16 +3533,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$51:$N$51</c:f>
+              <c:f>Overview!$D$51:$O$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3529,6 +3577,9 @@
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5659,7 +5710,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="263" workbookViewId="0">
+    <sheetView zoomScale="182" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5944,7 +5995,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="215" workbookViewId="0">
+    <sheetView zoomScale="164" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6230,7 +6281,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6272,22 +6323,22 @@
       </c>
       <c r="B2" s="18">
         <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
-        <v>0</v>
+        <v>-27.35</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2" s="10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6296,22 +6347,22 @@
       </c>
       <c r="B3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.3000000000000007</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6320,22 +6371,22 @@
       </c>
       <c r="B4" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6416,22 +6467,22 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.450000000000003</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6477,23 +6528,23 @@
       </c>
       <c r="C11" s="24">
         <f>SUM(C2:C9)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E11" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G11" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -7084,8 +7135,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7203,7 +7254,7 @@
       </c>
       <c r="N2" s="43">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>25.450000000000003</v>
       </c>
       <c r="O2" s="43">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7215,7 +7266,7 @@
       </c>
       <c r="Q2" s="38">
         <f t="shared" ref="Q2:Q9" si="0">SUM(B2:P2)</f>
-        <v>41.05</v>
+        <v>66.5</v>
       </c>
       <c r="R2" s="53" t="s">
         <v>7</v>
@@ -7419,7 +7470,7 @@
       </c>
       <c r="N5" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="O5" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7431,7 +7482,7 @@
       </c>
       <c r="Q5" s="39">
         <f t="shared" si="0"/>
-        <v>-39.700000000000003</v>
+        <v>-33.5</v>
       </c>
       <c r="R5" s="54" t="s">
         <v>6</v>
@@ -7491,7 +7542,7 @@
       </c>
       <c r="N6" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>-4.3000000000000007</v>
       </c>
       <c r="O6" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7503,7 +7554,7 @@
       </c>
       <c r="Q6" s="39">
         <f t="shared" si="0"/>
-        <v>66.349999999999994</v>
+        <v>62.05</v>
       </c>
       <c r="R6" s="54" t="s">
         <v>8</v>
@@ -7635,7 +7686,7 @@
       </c>
       <c r="N8" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>-27.35</v>
       </c>
       <c r="O8" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7647,7 +7698,7 @@
       </c>
       <c r="Q8" s="39">
         <f t="shared" si="0"/>
-        <v>21.9</v>
+        <v>-5.4500000000000028</v>
       </c>
       <c r="R8" s="54" t="s">
         <v>5</v>
@@ -7813,6 +7864,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+    </row>
+    <row r="24" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="s">
@@ -7945,15 +8001,15 @@
       </c>
       <c r="O44" s="1">
         <f>N44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>41.05</v>
+        <v>66.5</v>
       </c>
       <c r="P44" s="1">
         <f>O44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>41.05</v>
+        <v>66.5</v>
       </c>
       <c r="Q44" s="38">
         <f>P44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>41.05</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -8150,15 +8206,15 @@
       </c>
       <c r="O47" s="1">
         <f>N47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.700000000000003</v>
+        <v>-33.5</v>
       </c>
       <c r="P47" s="1">
         <f>O47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.700000000000003</v>
+        <v>-33.5</v>
       </c>
       <c r="Q47" s="39">
         <f>P47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.700000000000003</v>
+        <v>-33.5</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -8218,15 +8274,15 @@
       </c>
       <c r="O48" s="1">
         <f>N48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>66.349999999999994</v>
+        <v>62.05</v>
       </c>
       <c r="P48" s="1">
         <f>O48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>66.349999999999994</v>
+        <v>62.05</v>
       </c>
       <c r="Q48" s="39">
         <f>P48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>66.349999999999994</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -8354,15 +8410,15 @@
       </c>
       <c r="O50" s="1">
         <f>N50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>21.9</v>
+        <v>-5.4500000000000028</v>
       </c>
       <c r="P50" s="1">
         <f>O50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>21.9</v>
+        <v>-5.4500000000000028</v>
       </c>
       <c r="Q50" s="39">
         <f>P50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>21.9</v>
+        <v>-5.4500000000000028</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">

--- a/Poker_Chip_Tracker.xlsx
+++ b/Poker_Chip_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianrogg/PycharmProjects/Spade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD87560-59F2-824F-BF54-A68A236489F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BE8E2-C7BE-9447-BE19-60D734FE2BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="42">
   <si>
     <t>5-point chips</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Eliah</t>
-  </si>
-  <si>
-    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -2640,9 +2637,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -2678,16 +2675,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$44:$O$44</c:f>
+              <c:f>Overview!$D$44:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>18.600000000000001</c:v>
                 </c:pt>
@@ -2723,6 +2723,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,9 +2765,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -2800,16 +2803,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$45:$O$45</c:f>
+              <c:f>Overview!$D$45:$P$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-16.75</c:v>
                 </c:pt>
@@ -2845,6 +2851,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-70.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-57.849999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,9 +2893,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -2922,16 +2931,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$46:$O$46</c:f>
+              <c:f>Overview!$D$46:$P$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2967,6 +2979,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-39.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-44.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,9 +3021,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3044,16 +3059,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$47:$O$47</c:f>
+              <c:f>Overview!$D$47:$P$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -3089,6 +3107,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-33.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,9 +3149,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3166,16 +3187,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$48:$O$48</c:f>
+              <c:f>Overview!$D$48:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-17</c:v>
                 </c:pt>
@@ -3211,6 +3235,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>62.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,9 +3277,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3288,16 +3315,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$49:$O$49</c:f>
+              <c:f>Overview!$D$49:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3332,6 +3362,9 @@
                   <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3374,9 +3407,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3412,16 +3445,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$50:$O$50</c:f>
+              <c:f>Overview!$D$50:$P$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>11.15</c:v>
                 </c:pt>
@@ -3457,6 +3493,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-5.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9499999999999957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3498,9 +3537,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$O$43</c:f>
+              <c:f>Overview!$D$43:$P$43</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Day 2 </c:v>
                 </c:pt>
@@ -3536,16 +3575,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$51:$O$51</c:f>
+              <c:f>Overview!$D$51:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3580,6 +3622,9 @@
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6280,7 +6325,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -6565,8 +6610,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6608,22 +6653,22 @@
       </c>
       <c r="B2" s="18">
         <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
-        <v>0</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6632,22 +6677,22 @@
       </c>
       <c r="B3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-20.3</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6656,22 +6701,22 @@
       </c>
       <c r="B4" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6680,22 +6725,22 @@
       </c>
       <c r="B5" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.7</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6728,22 +6773,22 @@
       </c>
       <c r="B7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G7" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -6752,22 +6797,22 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.9</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6809,27 +6854,27 @@
       </c>
       <c r="B11" s="23">
         <f>SUM(B2:B9)</f>
-        <v>0</v>
+        <v>-2.6645352591003757E-15</v>
       </c>
       <c r="C11" s="24">
         <f>SUM(C2:C9)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E11" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G11" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -6850,7 +6895,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7135,8 +7180,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7258,7 +7303,7 @@
       </c>
       <c r="O2" s="43">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>-5.9</v>
       </c>
       <c r="P2" s="43">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7266,7 +7311,7 @@
       </c>
       <c r="Q2" s="38">
         <f t="shared" ref="Q2:Q9" si="0">SUM(B2:P2)</f>
-        <v>66.5</v>
+        <v>60.6</v>
       </c>
       <c r="R2" s="53" t="s">
         <v>7</v>
@@ -7330,7 +7375,7 @@
       </c>
       <c r="O3" s="1">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P3" s="1">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7338,7 +7383,7 @@
       </c>
       <c r="Q3" s="39">
         <f t="shared" si="0"/>
-        <v>-70.849999999999994</v>
+        <v>-57.849999999999994</v>
       </c>
       <c r="R3" s="54" t="s">
         <v>4</v>
@@ -7402,7 +7447,7 @@
       </c>
       <c r="O4" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>-4.7</v>
       </c>
       <c r="P4" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7410,7 +7455,7 @@
       </c>
       <c r="Q4" s="39">
         <f t="shared" si="0"/>
-        <v>-39.599999999999994</v>
+        <v>-44.3</v>
       </c>
       <c r="R4" s="54" t="s">
         <v>11</v>
@@ -7474,7 +7519,7 @@
       </c>
       <c r="O5" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="P5" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7482,7 +7527,7 @@
       </c>
       <c r="Q5" s="39">
         <f t="shared" si="0"/>
-        <v>-33.5</v>
+        <v>-24</v>
       </c>
       <c r="R5" s="54" t="s">
         <v>6</v>
@@ -7546,7 +7591,7 @@
       </c>
       <c r="O6" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>-20.3</v>
       </c>
       <c r="P6" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7554,7 +7599,7 @@
       </c>
       <c r="Q6" s="39">
         <f t="shared" si="0"/>
-        <v>62.05</v>
+        <v>41.75</v>
       </c>
       <c r="R6" s="54" t="s">
         <v>8</v>
@@ -7690,7 +7735,7 @@
       </c>
       <c r="O8" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="P8" s="21">
         <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
@@ -7698,7 +7743,7 @@
       </c>
       <c r="Q8" s="39">
         <f t="shared" si="0"/>
-        <v>-5.4500000000000028</v>
+        <v>2.9499999999999957</v>
       </c>
       <c r="R8" s="54" t="s">
         <v>5</v>
@@ -7844,7 +7889,7 @@
       </c>
       <c r="O11" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.5527136788005009E-15</v>
       </c>
       <c r="P11" s="35">
         <f t="shared" si="3"/>
@@ -7864,11 +7909,6 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="24" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R24" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="s">
@@ -8005,11 +8045,11 @@
       </c>
       <c r="P44" s="1">
         <f>O44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>66.5</v>
+        <v>60.6</v>
       </c>
       <c r="Q44" s="38">
         <f>P44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>66.5</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -8074,11 +8114,11 @@
       </c>
       <c r="P45" s="1">
         <f>O45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-70.849999999999994</v>
+        <v>-57.849999999999994</v>
       </c>
       <c r="Q45" s="39">
         <f>P45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-70.849999999999994</v>
+        <v>-57.849999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -8142,11 +8182,11 @@
       </c>
       <c r="P46" s="1">
         <f>O46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.599999999999994</v>
+        <v>-44.3</v>
       </c>
       <c r="Q46" s="39">
         <f>P46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.599999999999994</v>
+        <v>-44.3</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -8210,11 +8250,11 @@
       </c>
       <c r="P47" s="1">
         <f>O47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-33.5</v>
+        <v>-24</v>
       </c>
       <c r="Q47" s="39">
         <f>P47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-33.5</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -8278,11 +8318,11 @@
       </c>
       <c r="P48" s="1">
         <f>O48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>62.05</v>
+        <v>41.75</v>
       </c>
       <c r="Q48" s="39">
         <f>P48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>62.05</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -8414,11 +8454,11 @@
       </c>
       <c r="P50" s="1">
         <f>O50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.4500000000000028</v>
+        <v>2.9499999999999957</v>
       </c>
       <c r="Q50" s="39">
         <f>P50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.4500000000000028</v>
+        <v>2.9499999999999957</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">

--- a/Poker_Chip_Tracker.xlsx
+++ b/Poker_Chip_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianrogg/PycharmProjects/Spade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BE8E2-C7BE-9447-BE19-60D734FE2BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2DC160-512D-6440-9983-1A2118B16959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,13 @@
     <sheet name="Day 13" sheetId="20" r:id="rId13"/>
     <sheet name="Day 14" sheetId="21" r:id="rId14"/>
     <sheet name="Day 15" sheetId="22" r:id="rId15"/>
-    <sheet name="Overview" sheetId="2" r:id="rId16"/>
-    <sheet name="DayTemplate" sheetId="6" r:id="rId17"/>
+    <sheet name="Day 16" sheetId="24" r:id="rId16"/>
+    <sheet name="Day 17" sheetId="25" r:id="rId17"/>
+    <sheet name="Day 18" sheetId="26" r:id="rId18"/>
+    <sheet name="Day 19" sheetId="27" r:id="rId19"/>
+    <sheet name="Day 20" sheetId="28" r:id="rId20"/>
+    <sheet name="Overview" sheetId="2" r:id="rId21"/>
+    <sheet name="DayTemplate" sheetId="6" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="50">
   <si>
     <t>5-point chips</t>
   </si>
@@ -176,6 +181,30 @@
   <si>
     <t>Eliah</t>
   </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Day 17</t>
+  </si>
+  <si>
+    <t>Day 18</t>
+  </si>
+  <si>
+    <t>Day 19</t>
+  </si>
+  <si>
+    <t>Day 20</t>
+  </si>
+  <si>
+    <t>Golden Ratio</t>
+  </si>
+  <si>
+    <t>Abs Win</t>
+  </si>
+  <si>
+    <t>Abs Loss</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +214,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +243,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +285,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor rgb="FF4BACC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -635,11 +710,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -742,14 +927,64 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="172">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -815,7 +1050,7 @@
     <dxf>
       <border>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -849,7 +1084,494 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -2637,95 +3359,113 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$44:$P$44</c:f>
+              <c:f>Overview!$B$44:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>18.600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>8.0000000000000018</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-0.64999999999999858</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>4.1500000000000021</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>8.6500000000000021</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>28.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>11.000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>13.400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>4.3500000000000032</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>49.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>41.05</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>66.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,94 +3505,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$45:$P$45</c:f>
+              <c:f>Overview!$B$45:$Q$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-16.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-1.0499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>-11.05</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>-21.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-9.8999999999999986</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>-9.5499999999999989</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-15.6</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-20.85</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>-40.85</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>-70.849999999999994</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>-70.849999999999994</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>-57.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-57.849999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -2893,94 +3651,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$46:$P$46</c:f>
+              <c:f>Overview!$B$46:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>-10.199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-10.199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>-22.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-20.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-30.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>-34.299999999999997</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>-39.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>-39.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>-44.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-44.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3021,95 +3797,113 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$47:$P$47</c:f>
+              <c:f>Overview!$B$47:$Q$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>-5.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-5.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-7.9500000000000011</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>-37.950000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-21.500000000000004</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-2.2500000000000036</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>-42.25</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>-39.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>-33.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,95 +3943,113 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$48:$P$48</c:f>
+              <c:f>Overview!$B$48:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-17</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>-15.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-3.9500000000000011</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>-6.4500000000000011</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>-15.250000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-16.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>20.149999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3.2999999999999972</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>14.399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>23.45</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>66.349999999999994</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>62.05</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,57 +4089,66 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$49:$P$49</c:f>
+              <c:f>Overview!$B$49:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3335,10 +4156,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10.7</c:v>
@@ -3365,6 +4186,15 @@
                   <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3407,95 +4237,113 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$50:$P$50</c:f>
+              <c:f>Overview!$B$50:$Q$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11.15</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>21.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>14.45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>14.45</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>15.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-4.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>17.649999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>19.75</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13.7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>23.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>21.9</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>-5.4500000000000028</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2.9499999999999957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.7500000000000036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3537,57 +4385,66 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$D$43:$P$43</c:f>
+              <c:f>Overview!$B$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 2 </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Day 12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Day 13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Day 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$51:$P$51</c:f>
+              <c:f>Overview!$B$51:$Q$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3601,10 +4458,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10.149999999999999</c:v>
@@ -3625,6 +4482,15 @@
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4410,8 +5276,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>73623</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>127552</xdr:rowOff>
     </xdr:to>
@@ -4442,459 +5308,594 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{26BCA089-4AB2-504B-B176-8E57441AFF22}" name="Day_1" displayName="Day_1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="131" headerRowBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{26BCA089-4AB2-504B-B176-8E57441AFF22}" name="Day_1" displayName="Day_1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="171" headerRowBorderDxfId="170">
   <autoFilter ref="A1:G9" xr:uid="{26BCA089-4AB2-504B-B176-8E57441AFF22}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F778C173-93F3-7048-A864-BC4D56749E95}" name="SPIELER" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{19828673-FD2D-534C-A618-B1C290BCA800}" name="WIN / LOSS" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{F778C173-93F3-7048-A864-BC4D56749E95}" name="SPIELER" dataDxfId="169"/>
+    <tableColumn id="2" xr3:uid="{19828673-FD2D-534C-A618-B1C290BCA800}" name="WIN / LOSS" dataDxfId="168">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AAAA5205-1464-174A-9975-0B48779EDD52}" name="Total Bet" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{AAAA5205-1464-174A-9975-0B48779EDD52}" name="Total Bet" dataDxfId="167"/>
     <tableColumn id="4" xr3:uid="{47A9900F-2183-CE4F-91BF-0134266B95A0}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{19FA9980-5EFC-D14F-B0FD-1586EAAE7D5E}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{5B52226D-4007-5640-8333-AFCEDADD075E}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{6B79F470-D43F-6244-9E19-A8E31CA2D03F}" name="100-point chips" dataDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{6B79F470-D43F-6244-9E19-A8E31CA2D03F}" name="100-point chips" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E5CF2DB-4CB9-CB46-B34A-6ECD3B5D605A}" name="Day_10" displayName="Day_10" ref="A1:G9" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E5CF2DB-4CB9-CB46-B34A-6ECD3B5D605A}" name="Day_10" displayName="Day_10" ref="A1:G9" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116">
   <autoFilter ref="A1:G9" xr:uid="{5E5CF2DB-4CB9-CB46-B34A-6ECD3B5D605A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{305BEC15-1AE8-7D42-9C0A-0FF4E2B987DC}" name="SPIELER" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{9E364209-77D9-064A-B318-4809A40ACF17}" name="WIN / LOSS" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{305BEC15-1AE8-7D42-9C0A-0FF4E2B987DC}" name="SPIELER" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{9E364209-77D9-064A-B318-4809A40ACF17}" name="WIN / LOSS" dataDxfId="114">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{77A21266-EACB-AF4F-9FE5-2D334909E36D}" name="Total Bet" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{77A21266-EACB-AF4F-9FE5-2D334909E36D}" name="Total Bet" dataDxfId="113"/>
     <tableColumn id="4" xr3:uid="{DD22A89B-8DFE-4A46-B3B2-584CD3C509CD}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{1C96F71A-0F22-DB49-9DFA-8DA930E154BE}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{CA9CB6A0-7574-9947-8153-E1B15842D2C4}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{BDC32F1C-56DA-3C43-8B7C-369D6F07F474}" name="100-point chips" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{BDC32F1C-56DA-3C43-8B7C-369D6F07F474}" name="100-point chips" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C371D66B-CC3F-4C51-8D37-5E680D2C583D}" name="Day_11" displayName="Day_11" ref="A1:G9" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C371D66B-CC3F-4C51-8D37-5E680D2C583D}" name="Day_11" displayName="Day_11" ref="A1:G9" totalsRowShown="0" headerRowDxfId="111" headerRowBorderDxfId="110">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{88BD33C2-D366-4E3A-BACB-8AD4974FC7EE}" name="SPIELER" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{795A288E-7844-49A5-9C0F-7B914FE554A1}" name="WIN / LOSS" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{88BD33C2-D366-4E3A-BACB-8AD4974FC7EE}" name="SPIELER" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{795A288E-7844-49A5-9C0F-7B914FE554A1}" name="WIN / LOSS" dataDxfId="108">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{359DC9C0-B875-4031-953F-BCABCF4AB30D}" name="Total Bet" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{359DC9C0-B875-4031-953F-BCABCF4AB30D}" name="Total Bet" dataDxfId="107"/>
     <tableColumn id="4" xr3:uid="{4B50DDA7-FE78-4E07-816E-7412497A7C62}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{C3E17CBB-E15E-4069-84E5-CF0929D090AC}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{FD4799CE-C9DA-4B5D-953E-9936CA67F85E}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{42847FAE-8847-4D3A-996E-3D1E909B239F}" name="100-point chips" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{42847FAE-8847-4D3A-996E-3D1E909B239F}" name="100-point chips" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D4D12BAD-AF3E-41DE-917D-BF45C61A23C6}" name="Day_12" displayName="Day_12" ref="A1:G9" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D4D12BAD-AF3E-41DE-917D-BF45C61A23C6}" name="Day_12" displayName="Day_12" ref="A1:G9" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="104">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6175C157-A889-45A6-9A38-D81E65C4D759}" name="SPIELER" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{3AD80E3C-7831-4515-94FB-955B5C9937D8}" name="WIN / LOSS" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{6175C157-A889-45A6-9A38-D81E65C4D759}" name="SPIELER" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{3AD80E3C-7831-4515-94FB-955B5C9937D8}" name="WIN / LOSS" dataDxfId="102">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FC514918-4A2F-473D-90C1-4879AD349286}" name="Total Bet" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{FC514918-4A2F-473D-90C1-4879AD349286}" name="Total Bet" dataDxfId="101"/>
     <tableColumn id="4" xr3:uid="{55149F12-1E8E-4D42-85BE-D2063EE722A9}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{B30FEA25-7090-40A1-8D43-92B224A8D608}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{7D908E53-F7EC-4B91-923E-F1D31A243882}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{ECAA7987-A64D-45B3-917D-416E7B2FE487}" name="100-point chips" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{ECAA7987-A64D-45B3-917D-416E7B2FE487}" name="100-point chips" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{93713727-FEF9-4111-8F6D-27BFE089517D}" name="Day_13" displayName="Day_13" ref="A1:G9" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{93713727-FEF9-4111-8F6D-27BFE089517D}" name="Day_13" displayName="Day_13" ref="A1:G9" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="98">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2B9672A9-BE8B-4F6F-98AC-1A48C71E4744}" name="SPIELER" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{D021C65B-5DEE-4F5B-AA43-FE3EC83B4097}" name="WIN / LOSS" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{2B9672A9-BE8B-4F6F-98AC-1A48C71E4744}" name="SPIELER" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{D021C65B-5DEE-4F5B-AA43-FE3EC83B4097}" name="WIN / LOSS" dataDxfId="96">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8241A940-D7ED-4BCF-B186-1DC69BB8F30C}" name="Total Bet" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{8241A940-D7ED-4BCF-B186-1DC69BB8F30C}" name="Total Bet" dataDxfId="95"/>
     <tableColumn id="4" xr3:uid="{6725A0C7-72BA-415D-AC80-2010B3C2ADBE}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{15D91E3F-9D8A-4831-99B3-84BCCF27918A}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{4F451162-D846-4D93-8AB5-A7AC57777D24}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{B77481D9-FC7A-4D1E-99F1-F2584AA16CC8}" name="100-point chips" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{B77481D9-FC7A-4D1E-99F1-F2584AA16CC8}" name="100-point chips" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{522FE926-16F6-49F5-BD76-9F8231AEC269}" name="Day_14" displayName="Day_14" ref="A1:G9" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{522FE926-16F6-49F5-BD76-9F8231AEC269}" name="Day_14" displayName="Day_14" ref="A1:G9" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5CD90ED5-DA9A-43FA-AA9F-D866E2253F5C}" name="SPIELER" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{66AAB64E-CDE3-48EE-AE39-EEBBEFA7EED6}" name="WIN / LOSS" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{5CD90ED5-DA9A-43FA-AA9F-D866E2253F5C}" name="SPIELER" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{66AAB64E-CDE3-48EE-AE39-EEBBEFA7EED6}" name="WIN / LOSS" dataDxfId="90">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A24E5F4A-96AD-420E-A6B0-C891FAC64000}" name="Total Bet" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{A24E5F4A-96AD-420E-A6B0-C891FAC64000}" name="Total Bet" dataDxfId="89"/>
     <tableColumn id="4" xr3:uid="{35588D31-E27A-462D-A091-2A568C381123}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{5702D34C-03D5-4E1A-A46B-3BA6EBE950F0}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{05854272-3983-47A1-825E-530052B87654}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{2717B82E-0190-4449-91A3-16EBFE00AD76}" name="100-point chips" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{2717B82E-0190-4449-91A3-16EBFE00AD76}" name="100-point chips" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{42A3F1B4-4A90-4769-9985-DA06EAFFF23B}" name="Day_15" displayName="Day_15" ref="A1:G9" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{42A3F1B4-4A90-4769-9985-DA06EAFFF23B}" name="Day_15" displayName="Day_15" ref="A1:G9" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00F023A3-EDEA-4FE5-929A-BC20FD1B52D6}" name="SPIELER" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{EA6419C6-FAA7-441A-B3E3-4FC37514B332}" name="WIN / LOSS" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{00F023A3-EDEA-4FE5-929A-BC20FD1B52D6}" name="SPIELER" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{EA6419C6-FAA7-441A-B3E3-4FC37514B332}" name="WIN / LOSS" dataDxfId="84">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{03D4B600-6570-496B-AFF2-823F35D70334}" name="Total Bet" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{03D4B600-6570-496B-AFF2-823F35D70334}" name="Total Bet" dataDxfId="83"/>
     <tableColumn id="4" xr3:uid="{F5ED04A0-E94B-4EDF-B41E-A0998ECB0A2E}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{D3592E76-4B73-4C97-9900-2EBDFA555B3D}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{DD54ADF6-1491-402B-95B7-AB168AEAEF4F}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{5333CD95-239D-4D35-974E-8426AE6349D3}" name="100-point chips" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{5333CD95-239D-4D35-974E-8426AE6349D3}" name="100-point chips" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}" name="Table27" displayName="Table27" ref="A1:R9" totalsRowShown="0" headerRowDxfId="41">
-  <autoFilter ref="A1:R9" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R9">
-    <sortCondition descending="1" ref="A1:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{175E90BA-C73A-FE40-B991-FB705DC7CB9E}" name="Day_16" displayName="Day_16" ref="A1:G9" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39">
+  <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="A1:A9"/>
   </sortState>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{92EF8CB9-CB80-E148-A598-263592A13A8C}" name="SPIELER" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{7813C1CF-1A9B-6046-832A-CC2ECA89FAB6}" name="Day 1 " dataDxfId="39">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B2AA5D73-F994-4245-8046-A6EAC4444BD5}" name="SPIELER" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{BFC169EC-1ED3-3145-9FEE-1F92B23DF3B9}" name="WIN / LOSS" dataDxfId="37">
+      <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B660C4FA-C14B-004F-B492-5035CEBD7DEF}" name="Day 2 " dataDxfId="38">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{6C4A40C8-4461-204D-B46B-3268E768BF76}" name="Day 3" dataDxfId="37">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{399A3E3E-1727-0D4F-A7B6-EB361603F2DA}" name="Day 4" dataDxfId="36">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{72F7BE65-A228-984D-B729-A3258E48126F}" name="Day 5" dataDxfId="35">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{A0E7C1BE-EC9C-804A-A04D-1BEC5B3371EE}" name="Day 6" dataDxfId="34">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{5AF67BEE-5FB5-B24B-9631-F7CE0DBE78B8}" name="Day 7" dataDxfId="33">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{89090C79-1C04-B341-BE68-3B5E2E234225}" name="Day 8" dataDxfId="32">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{F382EE00-4228-DE42-840E-5F51A3AB0974}" name="Day 9" dataDxfId="31">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{B0182922-281E-024C-BB09-AD769F3B4FB4}" name="Day 10" dataDxfId="30">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{99A4EB56-D651-4BC2-A5CA-859F1A3F15B0}" name="Day 11" dataDxfId="29">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{F9993AEC-803F-4BA7-968D-107436BB462C}" name="Day 12" dataDxfId="28">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{A5F9D543-03D6-4394-A34A-49965C66E32F}" name="Day 13" dataDxfId="27">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{F80688AC-2797-4B24-810A-7953A26A1886}" name="Day 14" dataDxfId="26">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{0C41B488-8226-4607-9626-810AA705FB58}" name="Day 15" dataDxfId="25">
-      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{E5EE923F-05E4-6546-B9F0-0B9333029A6A}" name="Σ" dataDxfId="24">
-      <calculatedColumnFormula>SUM(B2:P2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{96EC457F-8EF5-9140-8717-7527BFB349F9}" name="SPIELER2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{F66B3FDE-0079-FD4F-BF5A-E38B731E1871}" name="Total Bet" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{8C2D6CB8-39DC-074C-8414-6E8943F7E771}" name="5-point chips"/>
+    <tableColumn id="5" xr3:uid="{A28DBCDA-1BC8-624A-8406-D86A03A663B2}" name="10-point chips"/>
+    <tableColumn id="6" xr3:uid="{EB96A007-ECD8-204A-BAD3-653665ECA7DC}" name="25-point chips"/>
+    <tableColumn id="7" xr3:uid="{3CEF263E-6812-4440-BB5F-C52BBF8A494B}" name="100-point chips" dataDxfId="35"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A90A8FC3-0A04-6543-8040-AB296FF02CAB}" name="MovingSum" displayName="MovingSum" ref="A43:Q51" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A43:Q51" xr:uid="{A90A8FC3-0A04-6543-8040-AB296FF02CAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DEF225DF-7B69-BD4A-95F2-F0DE0BD9D0F1}" name="Day_17" displayName="Day_17" ref="A1:G9" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33">
+  <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6AB28D11-ECDD-BC4C-AD81-2FCE9A4DFC64}" name="SPIELER" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{1474A097-CC52-BB45-904B-F3F5A7470863}" name="WIN / LOSS" dataDxfId="31">
+      <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{637F2FFE-4A73-A347-BFC2-E6B4BDA53661}" name="Total Bet" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{F9FD3E0A-4AA0-F846-AA9B-5D3338E7ACDB}" name="5-point chips"/>
+    <tableColumn id="5" xr3:uid="{910426B1-447B-6546-B6C3-91E876A8BE5D}" name="10-point chips"/>
+    <tableColumn id="6" xr3:uid="{6649948C-3E60-0C4F-975F-0BC97B6B831F}" name="25-point chips"/>
+    <tableColumn id="7" xr3:uid="{3D517463-D9DB-E240-907C-3E24D191FBC4}" name="100-point chips" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{06DE269F-4589-F948-8795-DC2E1F931BB7}" name="Day_18" displayName="Day_18" ref="A1:G9" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27">
+  <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3B0A7A6F-908A-744E-B20B-2DC52BE6C8D3}" name="SPIELER" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{DC19A030-2271-6348-A45B-72AFAA847681}" name="WIN / LOSS" dataDxfId="25">
+      <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F80FA9C3-EE58-8240-972D-38C11C3BCBB0}" name="Total Bet" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{5CB4AAA1-738E-DB49-B9F4-BC8F9E23731C}" name="5-point chips"/>
+    <tableColumn id="5" xr3:uid="{CDF3DC00-F7C7-B441-8C13-A7DA34283566}" name="10-point chips"/>
+    <tableColumn id="6" xr3:uid="{2ECF2E19-06E5-244E-961D-DEBC0FEE012D}" name="25-point chips"/>
+    <tableColumn id="7" xr3:uid="{908571D6-1A04-D847-8F46-8F7542295CE2}" name="100-point chips" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{8D859161-5958-1C42-99E6-9255DF856C37}" name="Day_19" displayName="Day_19" ref="A1:G9" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21">
+  <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2D4CA8E1-202C-734B-98A9-7B92EC0073BA}" name="SPIELER" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5780AD4D-7A8E-8546-BC55-58E3F42A6095}" name="WIN / LOSS" dataDxfId="19">
+      <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{48C58B58-8A20-AC46-B9FC-28D042FF2A0C}" name="Total Bet" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{BD90DD39-3978-1C47-8455-48856726EA71}" name="5-point chips"/>
+    <tableColumn id="5" xr3:uid="{6E97108F-11F9-4C45-BBDF-904B3B4127D5}" name="10-point chips"/>
+    <tableColumn id="6" xr3:uid="{50F9D07E-AECE-D047-B377-87075DFA3975}" name="25-point chips"/>
+    <tableColumn id="7" xr3:uid="{24ED1BEC-2127-C243-97DE-7A121816C240}" name="100-point chips" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{2E2F66EF-94C3-D140-B7B6-A06BEB2298D2}" name="Day_2" displayName="Day_2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="165" headerRowBorderDxfId="164">
+  <autoFilter ref="A1:G9" xr:uid="{2E2F66EF-94C3-D140-B7B6-A06BEB2298D2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AACD58F7-F4D8-B04A-AEB9-D3E9CA9C65FC}" name="SPIELER" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{AC5F3D63-71EB-6148-A513-440E30B56B4F}" name="WIN / LOSS" dataDxfId="162">
+      <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{707E652F-68DF-A64A-BE37-06351FF03C0C}" name="Total Bet" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{F4031EEB-F3BF-0E44-8E82-24CA3CFDFB7B}" name="5-point chips"/>
+    <tableColumn id="5" xr3:uid="{FC6735A0-948F-2B41-ADCA-C9D7AC24B542}" name="10-point chips"/>
+    <tableColumn id="6" xr3:uid="{BDB22257-723B-144E-9028-D09D27D00761}" name="25-point chips"/>
+    <tableColumn id="7" xr3:uid="{0FA5959F-9D9B-4E4B-AFA9-DD4ED98F22F2}" name="100-point chips" dataDxfId="160"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F7C489C6-7730-1A49-9AAF-1B9A550ABC73}" name="Day_20" displayName="Day_20" ref="A1:G9" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
+  <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{92D8B988-D606-1343-9EB8-29CE3C58D2BE}" name="SPIELER" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{C2B0ECFD-91CB-B543-9933-FD4C36A3741B}" name="WIN / LOSS" dataDxfId="13">
+      <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DEFFB77E-4832-C140-845C-1DE0BAF8CDF5}" name="Total Bet" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{168EEFB1-E3F6-F34D-8FAE-B670E92FE2E2}" name="5-point chips"/>
+    <tableColumn id="5" xr3:uid="{68CD001C-9A84-AC4D-AC78-035519692791}" name="10-point chips"/>
+    <tableColumn id="6" xr3:uid="{9D85ACCC-44B4-324A-B0D4-080F86BC7116}" name="25-point chips"/>
+    <tableColumn id="7" xr3:uid="{26C8F733-BCFB-604A-ADB3-85E0BFAF9238}" name="100-point chips" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A90A8FC3-0A04-6543-8040-AB296FF02CAB}" name="MovingSum" displayName="MovingSum" ref="A43:V51" totalsRowShown="0" headerRowDxfId="62">
+  <autoFilter ref="A43:V51" xr:uid="{A90A8FC3-0A04-6543-8040-AB296FF02CAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:Q51">
     <sortCondition descending="1" ref="A43:A51"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{D4A63321-B08A-B943-AC60-4A85C9318E90}" name="SPIELER" dataDxfId="21"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{D4A63321-B08A-B943-AC60-4A85C9318E90}" name="SPIELER" dataDxfId="61"/>
     <tableColumn id="9" xr3:uid="{DE305DD2-BCB7-EC40-AE00-3B7E06363F66}" name="Day 0">
       <calculatedColumnFormula>VLOOKUP(#REF!,Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C4A08EA6-C09B-6C44-818F-6D9C0EBD988D}" name="Day 1 " dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{C4A08EA6-C09B-6C44-818F-6D9C0EBD988D}" name="Day 1 " dataDxfId="60">
       <calculatedColumnFormula>B44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6D0ED243-E740-BE43-8908-60F2BCA06363}" name="Day 2 " dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{6D0ED243-E740-BE43-8908-60F2BCA06363}" name="Day 2 " dataDxfId="59">
       <calculatedColumnFormula>C44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5FF8194E-5DF4-0446-91F0-D45A23CB6151}" name="Day 3" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{5FF8194E-5DF4-0446-91F0-D45A23CB6151}" name="Day 3" dataDxfId="58">
       <calculatedColumnFormula>D44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B37B4B39-B8AF-F845-8DC2-BF41717C6C3E}" name="Day 4" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{B37B4B39-B8AF-F845-8DC2-BF41717C6C3E}" name="Day 4" dataDxfId="57">
       <calculatedColumnFormula>E44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{93E03325-9DD5-6C43-9F4C-A12288F6E429}" name="Day 5" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{93E03325-9DD5-6C43-9F4C-A12288F6E429}" name="Day 5" dataDxfId="56">
       <calculatedColumnFormula>F44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{68CD8288-38D9-8D44-9425-B4C1D9B32EBA}" name="Day 6" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{68CD8288-38D9-8D44-9425-B4C1D9B32EBA}" name="Day 6" dataDxfId="55">
       <calculatedColumnFormula>G44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{07BDFF4C-FBC4-4642-8E6F-C52CAD418185}" name="Day 7" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{07BDFF4C-FBC4-4642-8E6F-C52CAD418185}" name="Day 7" dataDxfId="54">
       <calculatedColumnFormula>H44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FF38180E-6AFB-CC44-95D8-531B1A543616}" name="Day 8" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{FF38180E-6AFB-CC44-95D8-531B1A543616}" name="Day 8" dataDxfId="53">
       <calculatedColumnFormula>I44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9CDD3E59-4169-474E-92DD-4FB009A76A55}" name="Day 9" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{9CDD3E59-4169-474E-92DD-4FB009A76A55}" name="Day 9" dataDxfId="52">
       <calculatedColumnFormula>J44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8234F178-5432-FE46-A39A-77CBB786AB45}" name="Day 10" dataDxfId="11">
+    <tableColumn id="12" xr3:uid="{8234F178-5432-FE46-A39A-77CBB786AB45}" name="Day 10" dataDxfId="51">
       <calculatedColumnFormula>K44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{31635AC4-8DEA-4929-A2B2-E706550DB5E4}" name="Day 11" dataDxfId="10">
+    <tableColumn id="13" xr3:uid="{31635AC4-8DEA-4929-A2B2-E706550DB5E4}" name="Day 11" dataDxfId="50">
       <calculatedColumnFormula>L44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CFF24DE5-134D-4DCF-90A8-6C8E98A91C1A}" name="Day 12" dataDxfId="9">
+    <tableColumn id="14" xr3:uid="{CFF24DE5-134D-4DCF-90A8-6C8E98A91C1A}" name="Day 12" dataDxfId="49">
       <calculatedColumnFormula>M44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B600E539-7E07-495C-828D-18541BFB7ACD}" name="Day 13" dataDxfId="8">
+    <tableColumn id="15" xr3:uid="{B600E539-7E07-495C-828D-18541BFB7ACD}" name="Day 13" dataDxfId="48">
       <calculatedColumnFormula>N44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B4159E44-30A3-47C0-9D37-9D4466EE716B}" name="Day 14" dataDxfId="7">
+    <tableColumn id="16" xr3:uid="{B4159E44-30A3-47C0-9D37-9D4466EE716B}" name="Day 14" dataDxfId="47">
       <calculatedColumnFormula>O44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9FB17180-AF73-4092-9270-A0939633CB07}" name="Day 15" dataDxfId="6">
+    <tableColumn id="17" xr3:uid="{9FB17180-AF73-4092-9270-A0939633CB07}" name="Day 15" dataDxfId="5">
       <calculatedColumnFormula>P44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{9856CBD3-A322-A84C-8A72-EF9F9FFF07CF}" name="Day 16" dataDxfId="4">
+      <calculatedColumnFormula>Q44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A47F5B80-DFF3-C04A-AF52-27FEEDCFFA95}" name="Day 17" dataDxfId="3">
+      <calculatedColumnFormula>R44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{FB53D2F1-124C-1543-AD5C-702BB3AFB6B5}" name="Day 18" dataDxfId="2">
+      <calculatedColumnFormula>S44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{9DD0F747-5320-0B49-B0E9-769F137686CA}" name="Day 19" dataDxfId="1">
+      <calculatedColumnFormula>T44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{DAA69755-4FEC-3141-A302-DAC501DF74E1}" name="Day 20" dataDxfId="0">
+      <calculatedColumnFormula>U44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}" name="Day_X" displayName="Day_X" ref="A1:G9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}" name="Table27" displayName="Table27" ref="A1:W9" totalsRowShown="0" headerRowDxfId="81">
+  <autoFilter ref="A1:W9" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W9">
+    <sortCondition descending="1" ref="V1:V9"/>
+  </sortState>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{92EF8CB9-CB80-E148-A598-263592A13A8C}" name="SPIELER" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{7813C1CF-1A9B-6046-832A-CC2ECA89FAB6}" name="Day 1 " dataDxfId="79">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B660C4FA-C14B-004F-B492-5035CEBD7DEF}" name="Day 2 " dataDxfId="78">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6C4A40C8-4461-204D-B46B-3268E768BF76}" name="Day 3" dataDxfId="77">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{399A3E3E-1727-0D4F-A7B6-EB361603F2DA}" name="Day 4" dataDxfId="76">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{72F7BE65-A228-984D-B729-A3258E48126F}" name="Day 5" dataDxfId="75">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{A0E7C1BE-EC9C-804A-A04D-1BEC5B3371EE}" name="Day 6" dataDxfId="74">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{5AF67BEE-5FB5-B24B-9631-F7CE0DBE78B8}" name="Day 7" dataDxfId="73">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{89090C79-1C04-B341-BE68-3B5E2E234225}" name="Day 8" dataDxfId="72">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{F382EE00-4228-DE42-840E-5F51A3AB0974}" name="Day 9" dataDxfId="71">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B0182922-281E-024C-BB09-AD769F3B4FB4}" name="Day 10" dataDxfId="70">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{99A4EB56-D651-4BC2-A5CA-859F1A3F15B0}" name="Day 11" dataDxfId="69">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{F9993AEC-803F-4BA7-968D-107436BB462C}" name="Day 12" dataDxfId="68">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{A5F9D543-03D6-4394-A34A-49965C66E32F}" name="Day 13" dataDxfId="67">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{F80688AC-2797-4B24-810A-7953A26A1886}" name="Day 14" dataDxfId="66">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{0C41B488-8226-4607-9626-810AA705FB58}" name="Day 15" dataDxfId="65">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{F83DB11A-8AF7-9442-89F2-CAFCE95DA53F}" name="Day 16" dataDxfId="10">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{8F949639-2CF9-854C-8FBD-732212C46E8C}" name="Day 17" dataDxfId="9">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{46A12C53-59A6-0642-9030-B8F98C2A5EB0}" name="Day 18" dataDxfId="8">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{6596C832-E54B-EF46-86CB-26846218D986}" name="Day 19" dataDxfId="7">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{84800F19-5824-E94C-8341-DC81AC34B2C0}" name="Day 20" dataDxfId="6">
+      <calculatedColumnFormula>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{E5EE923F-05E4-6546-B9F0-0B9333029A6A}" name="Σ" dataDxfId="64">
+      <calculatedColumnFormula>SUM(B2:P2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{96EC457F-8EF5-9140-8717-7527BFB349F9}" name="SPIELER2" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}" name="Day_X" displayName="Day_X" ref="A1:G9" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CAF30B83-9101-DA49-B8E3-FF4E4D4F12E6}" name="SPIELER" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{831EDA8E-0521-854F-89C3-E9F66179C1ED}" name="WIN / LOSS" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{CAF30B83-9101-DA49-B8E3-FF4E4D4F12E6}" name="SPIELER" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{831EDA8E-0521-854F-89C3-E9F66179C1ED}" name="WIN / LOSS" dataDxfId="43">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{627E6F5A-0CAD-B24D-BFC0-3F65FBBD5A54}" name="Total Bet" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{627E6F5A-0CAD-B24D-BFC0-3F65FBBD5A54}" name="Total Bet" dataDxfId="42"/>
     <tableColumn id="4" xr3:uid="{8B9ED35C-24C5-6844-B237-43D33B16196A}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{E4DF8B73-C3F7-C348-BBAC-F5854E3538E0}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{0FF71DCD-2492-7143-B294-2EFF6F4A222D}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{5ECE13F4-1183-1844-B734-A3542720D868}" name="100-point chips" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{2E2F66EF-94C3-D140-B7B6-A06BEB2298D2}" name="Day_2" displayName="Day_2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124">
-  <autoFilter ref="A1:G9" xr:uid="{2E2F66EF-94C3-D140-B7B6-A06BEB2298D2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
-    <sortCondition ref="A1:A9"/>
-  </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AACD58F7-F4D8-B04A-AEB9-D3E9CA9C65FC}" name="SPIELER" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{AC5F3D63-71EB-6148-A513-440E30B56B4F}" name="WIN / LOSS" dataDxfId="122">
-      <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{707E652F-68DF-A64A-BE37-06351FF03C0C}" name="Total Bet" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{F4031EEB-F3BF-0E44-8E82-24CA3CFDFB7B}" name="5-point chips"/>
-    <tableColumn id="5" xr3:uid="{FC6735A0-948F-2B41-ADCA-C9D7AC24B542}" name="10-point chips"/>
-    <tableColumn id="6" xr3:uid="{BDB22257-723B-144E-9028-D09D27D00761}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{0FA5959F-9D9B-4E4B-AFA9-DD4ED98F22F2}" name="100-point chips" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{5ECE13F4-1183-1844-B734-A3542720D868}" name="100-point chips" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8F309466-AB4F-2048-8F22-8F650782FE6D}" name="Day_3" displayName="Day_3" ref="A1:G9" totalsRowShown="0" headerRowDxfId="119" headerRowBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8F309466-AB4F-2048-8F22-8F650782FE6D}" name="Day_3" displayName="Day_3" ref="A1:G9" totalsRowShown="0" headerRowDxfId="159" headerRowBorderDxfId="158">
   <autoFilter ref="A1:G9" xr:uid="{8F309466-AB4F-2048-8F22-8F650782FE6D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EA28D152-8FA1-B74E-902C-5538A21E8BF7}" name="SPIELER" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D36F7A2C-4368-574B-9A80-2BFDDD07E6E1}" name="WIN / LOSS" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{EA28D152-8FA1-B74E-902C-5538A21E8BF7}" name="SPIELER" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{D36F7A2C-4368-574B-9A80-2BFDDD07E6E1}" name="WIN / LOSS" dataDxfId="156">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7B9AB4CA-0B6F-F948-ADB1-0AAD92971699}" name="Total Bet" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{7B9AB4CA-0B6F-F948-ADB1-0AAD92971699}" name="Total Bet" dataDxfId="155"/>
     <tableColumn id="4" xr3:uid="{02A4E9F0-E7C1-E742-96F3-496CF58A95E9}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{E945998F-7074-C044-817F-B08AF7C09881}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{7684F77E-800D-F246-B00B-117CC88935CC}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{602F17B8-01B4-4545-B4F3-45AC9E4B91CE}" name="100-point chips" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{602F17B8-01B4-4545-B4F3-45AC9E4B91CE}" name="100-point chips" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{17889A0E-3648-F848-A365-A13C38E1D762}" name="Day_4" displayName="Day_4" ref="A1:G9" totalsRowShown="0" headerRowDxfId="113" headerRowBorderDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{17889A0E-3648-F848-A365-A13C38E1D762}" name="Day_4" displayName="Day_4" ref="A1:G9" totalsRowShown="0" headerRowDxfId="153" headerRowBorderDxfId="152">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{81CE7B9C-0206-3D4F-B66C-11A6758082BA}" name="SPIELER" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{7F973662-79CA-334A-8662-173D1675ABA3}" name="WIN / LOSS" dataDxfId="110">
+    <tableColumn id="1" xr3:uid="{81CE7B9C-0206-3D4F-B66C-11A6758082BA}" name="SPIELER" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{7F973662-79CA-334A-8662-173D1675ABA3}" name="WIN / LOSS" dataDxfId="150">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6A177FDD-2448-3A47-B338-88E7D51308D3}" name="Total Bet" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{6A177FDD-2448-3A47-B338-88E7D51308D3}" name="Total Bet" dataDxfId="149"/>
     <tableColumn id="4" xr3:uid="{9AB1E7F1-F2AC-7646-931B-9E734CE9639F}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{1A541CDC-6DF6-A64D-A14F-4EA0A5E96AA7}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{B8A1B5FE-19B4-6B47-BED4-7D581CA6923A}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{F4DE2F99-2550-4549-A5A5-2F715C243627}" name="100-point chips" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{F4DE2F99-2550-4549-A5A5-2F715C243627}" name="100-point chips" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0C2A7EF4-1045-884B-ABE8-409BBA1DE237}" name="Day_5" displayName="Day_5" ref="A1:G9" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0C2A7EF4-1045-884B-ABE8-409BBA1DE237}" name="Day_5" displayName="Day_5" ref="A1:G9" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{23A2259C-7533-3F42-838E-9453B1796990}" name="SPIELER" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{7A4381DC-B73A-FC44-902A-1BFE96A15B98}" name="WIN / LOSS" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{23A2259C-7533-3F42-838E-9453B1796990}" name="SPIELER" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{7A4381DC-B73A-FC44-902A-1BFE96A15B98}" name="WIN / LOSS" dataDxfId="144">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0F9A409F-5B63-034C-89E3-04DB367285CD}" name="Total Bet" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{0F9A409F-5B63-034C-89E3-04DB367285CD}" name="Total Bet" dataDxfId="143"/>
     <tableColumn id="4" xr3:uid="{BADD3E5B-F29F-614E-AFE4-D59F8382A820}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{D0CF2F5B-362D-D24F-855C-F51E8048891A}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{FE475BC1-50F7-0544-A021-5FF205B6FF95}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{1A6C9F01-C227-724B-A795-F9E03277D6FE}" name="100-point chips" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{1A6C9F01-C227-724B-A795-F9E03277D6FE}" name="100-point chips" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{7406B1CB-4581-144A-A3E9-1E59AE89DD0D}" name="Day_6" displayName="Day_6" ref="A1:G9" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{7406B1CB-4581-144A-A3E9-1E59AE89DD0D}" name="Day_6" displayName="Day_6" ref="A1:G9" totalsRowShown="0" headerRowDxfId="141" headerRowBorderDxfId="140">
   <autoFilter ref="A1:G9" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{56FA1F8A-9177-0F43-970C-3BF04CDA8715}" name="SPIELER" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{2B7BF472-A099-3447-A227-C37731C600F6}" name="WIN / LOSS" dataDxfId="98">
+    <tableColumn id="1" xr3:uid="{56FA1F8A-9177-0F43-970C-3BF04CDA8715}" name="SPIELER" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{2B7BF472-A099-3447-A227-C37731C600F6}" name="WIN / LOSS" dataDxfId="138">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E576EE27-3679-524C-AD10-8EF069250DA9}" name="Total Bet" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{E576EE27-3679-524C-AD10-8EF069250DA9}" name="Total Bet" dataDxfId="137"/>
     <tableColumn id="4" xr3:uid="{993E0602-7D46-BD46-AEB3-57FED40506A6}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{CAB83164-2F66-0A44-9719-83F1D4D49D76}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{37A71A11-8068-DF42-99D0-B3A74F4729A8}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{CFE5F7A2-AE5E-E84A-BF28-9C47CEE96A80}" name="100-point chips" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{CFE5F7A2-AE5E-E84A-BF28-9C47CEE96A80}" name="100-point chips" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CEBB543-AB11-F447-A6BE-BF40741203CB}" name="Day_7" displayName="Day_7" ref="A1:G9" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CEBB543-AB11-F447-A6BE-BF40741203CB}" name="Day_7" displayName="Day_7" ref="A1:G9" totalsRowShown="0" headerRowDxfId="135" headerRowBorderDxfId="134">
   <autoFilter ref="A1:G9" xr:uid="{3CEBB543-AB11-F447-A6BE-BF40741203CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E28E4A7E-D728-834A-AA6D-741FFA2BBE29}" name="SPIELER" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{94761BCE-A6E1-3642-8D2D-7E41D8F0BD27}" name="WIN / LOSS" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{E28E4A7E-D728-834A-AA6D-741FFA2BBE29}" name="SPIELER" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{94761BCE-A6E1-3642-8D2D-7E41D8F0BD27}" name="WIN / LOSS" dataDxfId="132">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A997F226-D8F8-974E-8B89-3820D3DBD244}" name="Total Bet" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{A997F226-D8F8-974E-8B89-3820D3DBD244}" name="Total Bet" dataDxfId="131"/>
     <tableColumn id="4" xr3:uid="{A7F2B4E3-F1B7-CA48-9396-587A40935F11}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{B3BFB656-CFB7-C64C-AFF2-96517694A071}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{D37CC3CC-0D34-1E43-80A3-F4BEA7E30D79}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{D59B38C7-1E55-9B45-AAC0-30E6F7B0F74C}" name="100-point chips" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{D59B38C7-1E55-9B45-AAC0-30E6F7B0F74C}" name="100-point chips" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE01C463-D3C5-D243-9844-2CDF4F157A19}" name="Day_8" displayName="Day_8" ref="A1:G9" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE01C463-D3C5-D243-9844-2CDF4F157A19}" name="Day_8" displayName="Day_8" ref="A1:G9" totalsRowShown="0" headerRowDxfId="129" headerRowBorderDxfId="128">
   <autoFilter ref="A1:G9" xr:uid="{BE01C463-D3C5-D243-9844-2CDF4F157A19}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ECBE66C8-6B84-9549-A251-FF934E776864}" name="SPIELER" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{F1CD96D4-1D44-9B4B-8EAE-039D27A09737}" name="WIN / LOSS" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{ECBE66C8-6B84-9549-A251-FF934E776864}" name="SPIELER" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{F1CD96D4-1D44-9B4B-8EAE-039D27A09737}" name="WIN / LOSS" dataDxfId="126">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3C6BD84-0C42-D640-8517-F4FDF082B991}" name="Total Bet" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{C3C6BD84-0C42-D640-8517-F4FDF082B991}" name="Total Bet" dataDxfId="125"/>
     <tableColumn id="4" xr3:uid="{7F43AAE5-BEB1-394E-A7CD-56B7762471A6}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{A78BF39C-F48A-9344-AF73-3C32D3512E93}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{FAC3318A-FBC3-F749-80DB-C61771270FE0}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{F629F49F-F923-F442-9B2B-972B31F17132}" name="100-point chips" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{F629F49F-F923-F442-9B2B-972B31F17132}" name="100-point chips" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AF25AAC4-A65A-5642-B5E1-292B4C95C07C}" name="Day_9" displayName="Day_9" ref="A1:G9" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AF25AAC4-A65A-5642-B5E1-292B4C95C07C}" name="Day_9" displayName="Day_9" ref="A1:G9" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="122">
   <autoFilter ref="A1:G9" xr:uid="{AF25AAC4-A65A-5642-B5E1-292B4C95C07C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D5F0557F-9500-CF4A-BF0C-22DD910DA0FD}" name="SPIELER" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{B881B4C3-0C48-6546-A466-0461D5E8A772}" name="WIN / LOSS" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D5F0557F-9500-CF4A-BF0C-22DD910DA0FD}" name="SPIELER" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{B881B4C3-0C48-6546-A466-0461D5E8A772}" name="WIN / LOSS" dataDxfId="120">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{39CC78EF-ED58-A346-88E2-4C0A02D68FFA}" name="Total Bet" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{39CC78EF-ED58-A346-88E2-4C0A02D68FFA}" name="Total Bet" dataDxfId="119"/>
     <tableColumn id="4" xr3:uid="{205EC53E-A530-8F4B-8F51-B125472E46EF}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{89D446A3-CBC9-DB43-9952-B98B1FF89059}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{638DF44B-838D-164C-864C-A3292C50C497}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{3104B95A-4D67-6246-B077-B907E873AA06}" name="100-point chips" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{3104B95A-4D67-6246-B077-B907E873AA06}" name="100-point chips" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6611,7 +7612,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6895,8 +7896,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6938,22 +7939,22 @@
       </c>
       <c r="B2" s="18">
         <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
-        <v>0</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6962,22 +7963,22 @@
       </c>
       <c r="B3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0000000000000711E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6986,10 +7987,10 @@
       </c>
       <c r="B4" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -7001,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7082,22 +8083,22 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.649999999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7143,23 +8144,23 @@
       </c>
       <c r="C11" s="24">
         <f>SUM(C2:C9)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E11" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G11" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -7176,1383 +8177,863 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:R51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECD6736-2DB5-524E-AF7B-3D721C14EBA0}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>11.3</v>
-      </c>
-      <c r="C2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="D2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10.6</v>
-      </c>
-      <c r="E2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-8.65</v>
-      </c>
-      <c r="F2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="G2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>19.55</v>
-      </c>
-      <c r="I2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-17.2</v>
-      </c>
-      <c r="J2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="K2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-9.0500000000000007</v>
-      </c>
-      <c r="L2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>45.25</v>
-      </c>
-      <c r="M2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-8.5500000000000007</v>
-      </c>
-      <c r="N2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>25.450000000000003</v>
-      </c>
-      <c r="O2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.9</v>
-      </c>
-      <c r="P2" s="43">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="38">
-        <f t="shared" ref="Q2:Q9" si="0">SUM(B2:P2)</f>
-        <v>60.6</v>
-      </c>
-      <c r="R2" s="53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10</v>
-      </c>
-      <c r="C3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-6.75</v>
-      </c>
-      <c r="D3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>18.75</v>
-      </c>
-      <c r="E3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-3.05</v>
-      </c>
-      <c r="F3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10</v>
-      </c>
-      <c r="G3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10.7</v>
-      </c>
-      <c r="H3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>11.850000000000001</v>
-      </c>
-      <c r="I3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0.34999999999999964</v>
-      </c>
-      <c r="J3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-6.0500000000000007</v>
-      </c>
-      <c r="K3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.25</v>
-      </c>
-      <c r="L3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-20</v>
-      </c>
-      <c r="M3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-30</v>
-      </c>
-      <c r="N3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="P3" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="39">
-        <f t="shared" si="0"/>
-        <v>-57.849999999999994</v>
-      </c>
-      <c r="R3" s="54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10</v>
-      </c>
-      <c r="E4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-4</v>
-      </c>
-      <c r="F4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>3.8000000000000007</v>
-      </c>
-      <c r="H4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-11.95</v>
-      </c>
-      <c r="J4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>1.9499999999999993</v>
-      </c>
-      <c r="K4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10</v>
-      </c>
-      <c r="L4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="M4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.3000000000000007</v>
-      </c>
-      <c r="N4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-4.7</v>
-      </c>
-      <c r="P4" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="39">
-        <f t="shared" si="0"/>
-        <v>-44.3</v>
-      </c>
-      <c r="R4" s="54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-9.5</v>
-      </c>
-      <c r="E5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>7.6999999999999993</v>
-      </c>
-      <c r="G5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10.15</v>
-      </c>
-      <c r="I5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-30</v>
-      </c>
-      <c r="J5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>16.45</v>
-      </c>
-      <c r="K5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>19.25</v>
-      </c>
-      <c r="L5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-40</v>
-      </c>
-      <c r="M5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.5500000000000007</v>
-      </c>
-      <c r="N5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>6.1999999999999993</v>
-      </c>
-      <c r="O5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>9.5</v>
-      </c>
-      <c r="P5" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="39">
-        <f t="shared" si="0"/>
-        <v>-24</v>
-      </c>
-      <c r="R5" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-3.45</v>
-      </c>
-      <c r="C6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-13.55</v>
-      </c>
-      <c r="D6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>1.0999999999999996</v>
-      </c>
-      <c r="E6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>11.95</v>
-      </c>
-      <c r="F6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="G6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="H6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-1.25</v>
-      </c>
-      <c r="I6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>36.65</v>
-      </c>
-      <c r="J6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-16.850000000000001</v>
-      </c>
-      <c r="K6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>11.100000000000001</v>
-      </c>
-      <c r="L6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="M6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>42.9</v>
-      </c>
-      <c r="N6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-4.3000000000000007</v>
-      </c>
-      <c r="O6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-20.3</v>
-      </c>
-      <c r="P6" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="39">
-        <f t="shared" si="0"/>
-        <v>41.75</v>
-      </c>
-      <c r="R6" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="F7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="39">
-        <f t="shared" si="0"/>
-        <v>10.7</v>
-      </c>
-      <c r="R7" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="C8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="D8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.25</v>
-      </c>
-      <c r="E8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-6.9499999999999993</v>
-      </c>
-      <c r="F8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>1.0500000000000007</v>
-      </c>
-      <c r="H8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-20</v>
-      </c>
-      <c r="I8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>22.15</v>
-      </c>
-      <c r="J8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.1000000000000014</v>
-      </c>
-      <c r="K8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-6.05</v>
-      </c>
-      <c r="L8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-1.5999999999999996</v>
-      </c>
-      <c r="N8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-27.35</v>
-      </c>
-      <c r="O8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="P8" s="21">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="39">
-        <f t="shared" si="0"/>
-        <v>2.9499999999999957</v>
-      </c>
-      <c r="R8" s="54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="H9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="50">
-        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="40">
-        <f t="shared" si="0"/>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="23">
         <f>SUM(B2:B9)</f>
-        <v>8.8817841970012523E-16</v>
-      </c>
-      <c r="C11" s="23">
-        <f t="shared" ref="C11:G11" si="1">SUM(C2:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f>SUM(C2:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="23">
+      <c r="F11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="G11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="35">
-        <f>SUM(H2:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="35">
-        <f t="shared" ref="I11:K11" si="2">SUM(I2:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="35">
-        <f t="shared" si="2"/>
-        <v>-1.7763568394002505E-15</v>
-      </c>
-      <c r="K11" s="35">
-        <f t="shared" si="2"/>
-        <v>8.8817841970012523E-16</v>
-      </c>
-      <c r="L11" s="35">
-        <f>SUM(L2:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="35">
-        <f t="shared" ref="M11:Q11" si="3">SUM(M2:M9)</f>
-        <v>1.7763568394002505E-15</v>
-      </c>
-      <c r="N11" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="35">
-        <f t="shared" si="3"/>
-        <v>-3.5527136788005009E-15</v>
-      </c>
-      <c r="P11" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-    </row>
-    <row r="43" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="43">
-        <v>0</v>
-      </c>
-      <c r="C44" s="43">
-        <f>B44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>11.3</v>
-      </c>
-      <c r="D44" s="43">
-        <f>C44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E44" s="43">
-        <f>D44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>8.0000000000000018</v>
-      </c>
-      <c r="F44" s="43">
-        <f>E44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-0.64999999999999858</v>
-      </c>
-      <c r="G44" s="43">
-        <f>F44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>4.1500000000000021</v>
-      </c>
-      <c r="H44" s="43">
-        <f>G44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>8.6500000000000021</v>
-      </c>
-      <c r="I44" s="43">
-        <f>H44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="J44" s="43">
-        <f>I44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>11.000000000000004</v>
-      </c>
-      <c r="K44" s="1">
-        <f>J44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>13.400000000000004</v>
-      </c>
-      <c r="L44" s="1">
-        <f>K44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>4.3500000000000032</v>
-      </c>
-      <c r="M44" s="1">
-        <f>L44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>49.6</v>
-      </c>
-      <c r="N44" s="1">
-        <f>M44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>41.05</v>
-      </c>
-      <c r="O44" s="1">
-        <f>N44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>66.5</v>
-      </c>
-      <c r="P44" s="1">
-        <f>O44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>60.6</v>
-      </c>
-      <c r="Q44" s="38">
-        <f>P44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>60.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <f>B45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10</v>
-      </c>
-      <c r="D45" s="1">
-        <f>C45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-16.75</v>
-      </c>
-      <c r="E45" s="1">
-        <f>D45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="F45" s="1">
-        <f>E45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-1.0499999999999998</v>
-      </c>
-      <c r="G45" s="1">
-        <f>F45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-11.05</v>
-      </c>
-      <c r="H45" s="1">
-        <f>G45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-21.75</v>
-      </c>
-      <c r="I45" s="1">
-        <f>H45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-9.8999999999999986</v>
-      </c>
-      <c r="J45" s="1">
-        <f>I45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-9.5499999999999989</v>
-      </c>
-      <c r="K45" s="1">
-        <f>J45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-15.6</v>
-      </c>
-      <c r="L45" s="1">
-        <f>K45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-20.85</v>
-      </c>
-      <c r="M45" s="1">
-        <f>L45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-40.85</v>
-      </c>
-      <c r="N45" s="1">
-        <f>M45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-70.849999999999994</v>
-      </c>
-      <c r="O45" s="1">
-        <f>N45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-70.849999999999994</v>
-      </c>
-      <c r="P45" s="1">
-        <f>O45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-57.849999999999994</v>
-      </c>
-      <c r="Q45" s="39">
-        <f>P45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-57.849999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="21">
-        <v>0</v>
-      </c>
-      <c r="C46" s="21">
-        <f>B46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="21">
-        <f>C46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="21">
-        <f>D46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10</v>
-      </c>
-      <c r="F46" s="21">
-        <f>E46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-14</v>
-      </c>
-      <c r="G46" s="21">
-        <f>F46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-14</v>
-      </c>
-      <c r="H46" s="21">
-        <f>G46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="I46" s="1">
-        <f>H46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="J46" s="1">
-        <f>I46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-22.15</v>
-      </c>
-      <c r="K46" s="1">
-        <f>J46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-20.2</v>
-      </c>
-      <c r="L46" s="1">
-        <f>K46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-30.2</v>
-      </c>
-      <c r="M46" s="1">
-        <f>L46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="N46" s="1">
-        <f>M46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.599999999999994</v>
-      </c>
-      <c r="O46" s="1">
-        <f>N46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.599999999999994</v>
-      </c>
-      <c r="P46" s="1">
-        <f>O46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-44.3</v>
-      </c>
-      <c r="Q46" s="39">
-        <f>P46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-44.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="21">
-        <v>0</v>
-      </c>
-      <c r="C47" s="21">
-        <f>B47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="21">
-        <f>C47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E47" s="21">
-        <f>D47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.5</v>
-      </c>
-      <c r="F47" s="21">
-        <f>E47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.5</v>
-      </c>
-      <c r="G47" s="21">
-        <f>F47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.1999999999999993</v>
-      </c>
-      <c r="H47" s="21">
-        <f>G47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.1999999999999993</v>
-      </c>
-      <c r="I47" s="1">
-        <f>H47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-7.9500000000000011</v>
-      </c>
-      <c r="J47" s="1">
-        <f>I47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-37.950000000000003</v>
-      </c>
-      <c r="K47" s="1">
-        <f>J47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-21.500000000000004</v>
-      </c>
-      <c r="L47" s="1">
-        <f>K47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-2.2500000000000036</v>
-      </c>
-      <c r="M47" s="1">
-        <f>L47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-42.25</v>
-      </c>
-      <c r="N47" s="1">
-        <f>M47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-39.700000000000003</v>
-      </c>
-      <c r="O47" s="1">
-        <f>N47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-33.5</v>
-      </c>
-      <c r="P47" s="1">
-        <f>O47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-24</v>
-      </c>
-      <c r="Q47" s="39">
-        <f>P47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="21">
-        <v>0</v>
-      </c>
-      <c r="C48" s="21">
-        <f>B48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-3.45</v>
-      </c>
-      <c r="D48" s="21">
-        <f>C48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-17</v>
-      </c>
-      <c r="E48" s="21">
-        <f>D48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-15.9</v>
-      </c>
-      <c r="F48" s="21">
-        <f>E48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-3.9500000000000011</v>
-      </c>
-      <c r="G48" s="21">
-        <f>F48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-6.4500000000000011</v>
-      </c>
-      <c r="H48" s="21">
-        <f>G48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-15.250000000000002</v>
-      </c>
-      <c r="I48" s="1">
-        <f>H48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-16.5</v>
-      </c>
-      <c r="J48" s="1">
-        <f>I48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>20.149999999999999</v>
-      </c>
-      <c r="K48" s="1">
-        <f>J48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>3.2999999999999972</v>
-      </c>
-      <c r="L48" s="1">
-        <f>K48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="M48" s="1">
-        <f>L48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>23.45</v>
-      </c>
-      <c r="N48" s="1">
-        <f>M48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>66.349999999999994</v>
-      </c>
-      <c r="O48" s="1">
-        <f>N48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>62.05</v>
-      </c>
-      <c r="P48" s="1">
-        <f>O48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>41.75</v>
-      </c>
-      <c r="Q48" s="39">
-        <f>P48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>41.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <f>B49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <f>C49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <f>D49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <f>E49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="G49" s="1">
-        <f>F49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="H49" s="1">
-        <f>G49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="I49" s="1">
-        <f>H49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="J49" s="1">
-        <f>I49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="K49" s="1">
-        <f>J49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="L49" s="1">
-        <f>K49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="M49" s="1">
-        <f>L49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="N49" s="1">
-        <f>M49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="O49" s="1">
-        <f>N49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="P49" s="1">
-        <f>O49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-      <c r="Q49" s="39">
-        <f>P49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="21">
-        <v>0</v>
-      </c>
-      <c r="C50" s="21">
-        <f>B50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="D50" s="21">
-        <f>C50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>11.15</v>
-      </c>
-      <c r="E50" s="21">
-        <f>D50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>21.4</v>
-      </c>
-      <c r="F50" s="21">
-        <f>E50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>14.45</v>
-      </c>
-      <c r="G50" s="21">
-        <f>F50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>14.45</v>
-      </c>
-      <c r="H50" s="21">
-        <f>G50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>15.5</v>
-      </c>
-      <c r="I50" s="1">
-        <f>H50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-4.5</v>
-      </c>
-      <c r="J50" s="1">
-        <f>I50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="K50" s="1">
-        <f>J50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>19.75</v>
-      </c>
-      <c r="L50" s="1">
-        <f>K50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>13.7</v>
-      </c>
-      <c r="M50" s="1">
-        <f>L50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>23.5</v>
-      </c>
-      <c r="N50" s="1">
-        <f>M50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>21.9</v>
-      </c>
-      <c r="O50" s="1">
-        <f>N50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>-5.4500000000000028</v>
-      </c>
-      <c r="P50" s="1">
-        <f>O50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.9499999999999957</v>
-      </c>
-      <c r="Q50" s="39">
-        <f>P50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>2.9499999999999957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="50">
-        <v>0</v>
-      </c>
-      <c r="C51" s="50">
-        <f>B51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="50">
-        <f>C51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="50">
-        <f>D51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="50">
-        <f>E51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="50">
-        <f>F51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="50">
-        <f>G51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="I51" s="6">
-        <f>H51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="J51" s="6">
-        <f>I51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="K51" s="6">
-        <f>J51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="L51" s="6">
-        <f>K51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="M51" s="6">
-        <f>L51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="N51" s="6">
-        <f>M51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="O51" s="6">
-        <f>N51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="P51" s="6">
-        <f>O51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="Q51" s="40">
-        <f>P51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
-        <v>10.149999999999999</v>
-      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="43"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A42:Q42"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B44:B51" calculatedColumn="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8C19E-52AA-114E-A138-C334324D6AA0}">
-  <sheetPr codeName="Sheet12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC14A87-926E-FB4E-BF38-4E4E1847B651}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23">
+        <f>SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f>SUM(C2:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="43"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122F9185-69C9-A348-A1F8-7ED321EEC7E0}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23">
+        <f>SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f>SUM(C2:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="43"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5389194-3CFE-5849-A7F5-A7C6F5BECF20}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9111,6 +9592,2491 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CF54A7-313D-D040-8161-1CFA5FC969B6}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23">
+        <f>SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f>SUM(C2:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="43"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:AG51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V51" sqref="V51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AD1" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="C2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="D2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10.6</v>
+      </c>
+      <c r="E2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-8.65</v>
+      </c>
+      <c r="F2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>19.55</v>
+      </c>
+      <c r="I2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-17.2</v>
+      </c>
+      <c r="J2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="K2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-9.0500000000000007</v>
+      </c>
+      <c r="L2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>45.25</v>
+      </c>
+      <c r="M2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-8.5500000000000007</v>
+      </c>
+      <c r="N2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>25.450000000000003</v>
+      </c>
+      <c r="O2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.9</v>
+      </c>
+      <c r="P2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="Q2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="43">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="38">
+        <f>SUM(B2:P2)</f>
+        <v>74.25</v>
+      </c>
+      <c r="W2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AD2" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>134.19999999999999</v>
+      </c>
+      <c r="AF2" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>-59.949999999999996</v>
+      </c>
+      <c r="AG2" s="72">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v>1.4923547400611621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-3.45</v>
+      </c>
+      <c r="C3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-13.55</v>
+      </c>
+      <c r="D3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="E3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>11.95</v>
+      </c>
+      <c r="F3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="H3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-1.25</v>
+      </c>
+      <c r="I3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>36.65</v>
+      </c>
+      <c r="J3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-16.850000000000001</v>
+      </c>
+      <c r="K3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="L3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="M3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>42.9</v>
+      </c>
+      <c r="N3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-4.3000000000000007</v>
+      </c>
+      <c r="O3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-20.3</v>
+      </c>
+      <c r="P3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="Q3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="39">
+        <f>SUM(B3:P3)</f>
+        <v>41.8</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AD3" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="63">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>112.8</v>
+      </c>
+      <c r="AF3" s="63">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>-71</v>
+      </c>
+      <c r="AG3" s="73">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v>1.8156941649899396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="F4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="61">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="39">
+        <f>SUM(B4:P4)</f>
+        <v>10.7</v>
+      </c>
+      <c r="W4" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AD4" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>10.7</v>
+      </c>
+      <c r="AF4" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="72" t="str">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="H5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="39">
+        <f>SUM(B5:P5)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="W5" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AD5" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="63">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="AF5" s="63">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="73" t="str">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="C6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.25</v>
+      </c>
+      <c r="E6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-6.9499999999999993</v>
+      </c>
+      <c r="F6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="H6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-20</v>
+      </c>
+      <c r="I6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>22.15</v>
+      </c>
+      <c r="J6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="K6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-6.05</v>
+      </c>
+      <c r="L6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-1.5999999999999996</v>
+      </c>
+      <c r="N6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-27.35</v>
+      </c>
+      <c r="O6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="P6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="39">
+        <f>SUM(B6:P6)</f>
+        <v>-5.7500000000000036</v>
+      </c>
+      <c r="W6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AD6" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AF6" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>-70.650000000000006</v>
+      </c>
+      <c r="AG6" s="72">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v>0.68895966029723998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-9.5</v>
+      </c>
+      <c r="E7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="G7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10.15</v>
+      </c>
+      <c r="I7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-30</v>
+      </c>
+      <c r="J7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>16.45</v>
+      </c>
+      <c r="K7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>19.25</v>
+      </c>
+      <c r="L7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-40</v>
+      </c>
+      <c r="M7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.5500000000000007</v>
+      </c>
+      <c r="N7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="O7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="P7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="21">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="39">
+        <f>SUM(B7:P7)</f>
+        <v>-29</v>
+      </c>
+      <c r="W7" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AD7" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="63">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>65.650000000000006</v>
+      </c>
+      <c r="AF7" s="63">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>-94.65</v>
+      </c>
+      <c r="AG7" s="73">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v>0.49543430684476653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10</v>
+      </c>
+      <c r="E8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="F8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="H8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-11.95</v>
+      </c>
+      <c r="J8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>1.9499999999999993</v>
+      </c>
+      <c r="K8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10</v>
+      </c>
+      <c r="L8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="M8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.3000000000000007</v>
+      </c>
+      <c r="N8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-4.7</v>
+      </c>
+      <c r="P8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="60">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="39">
+        <f>SUM(B8:P8)</f>
+        <v>-44.3</v>
+      </c>
+      <c r="W8" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AD8" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>5.75</v>
+      </c>
+      <c r="AF8" s="62">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>-50.050000000000011</v>
+      </c>
+      <c r="AG8" s="72">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v>0.40209790209790203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10</v>
+      </c>
+      <c r="C9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-6.75</v>
+      </c>
+      <c r="D9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>18.75</v>
+      </c>
+      <c r="E9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-3.05</v>
+      </c>
+      <c r="F9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10</v>
+      </c>
+      <c r="G9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10.7</v>
+      </c>
+      <c r="H9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>11.850000000000001</v>
+      </c>
+      <c r="I9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="J9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-6.0500000000000007</v>
+      </c>
+      <c r="K9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.25</v>
+      </c>
+      <c r="L9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-20</v>
+      </c>
+      <c r="M9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-30</v>
+      </c>
+      <c r="N9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="P9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <f>VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="40">
+        <f>SUM(B9:P9)</f>
+        <v>-57.849999999999994</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AD9" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="64">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+        <v>43.95</v>
+      </c>
+      <c r="AF9" s="64">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
+        <v>-101.8</v>
+      </c>
+      <c r="AG9" s="74">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+        <v>0.97138998035363477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23">
+        <f>SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
+        <f>SUM(C2:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="23">
+        <f>SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
+        <f>SUM(E2:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <f>SUM(F2:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <f>SUM(G2:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <f>SUM(H2:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <f>SUM(I2:I9)</f>
+        <v>-5.3290705182007514E-15</v>
+      </c>
+      <c r="J11" s="35">
+        <f>SUM(J2:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="35">
+        <f>SUM(K2:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="35">
+        <f>SUM(L2:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="35">
+        <f>SUM(M2:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="35">
+        <f>SUM(N2:N9)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="35">
+        <f t="shared" ref="O11:U11" si="0">SUM(O2:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="35">
+        <f>SUM(Table27[Σ])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+    </row>
+    <row r="43" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="S43" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="V43" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="43">
+        <v>0</v>
+      </c>
+      <c r="C44" s="43">
+        <f>B44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="D44" s="43">
+        <f>C44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E44" s="43">
+        <f>D44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="F44" s="43">
+        <f>E44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-0.64999999999999858</v>
+      </c>
+      <c r="G44" s="43">
+        <f>F44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>4.1500000000000021</v>
+      </c>
+      <c r="H44" s="43">
+        <f>G44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>8.6500000000000021</v>
+      </c>
+      <c r="I44" s="43">
+        <f>H44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="J44" s="43">
+        <f>I44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>11.000000000000004</v>
+      </c>
+      <c r="K44" s="1">
+        <f>J44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>13.400000000000004</v>
+      </c>
+      <c r="L44" s="1">
+        <f>K44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>4.3500000000000032</v>
+      </c>
+      <c r="M44" s="1">
+        <f>L44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>49.6</v>
+      </c>
+      <c r="N44" s="1">
+        <f>M44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.05</v>
+      </c>
+      <c r="O44" s="1">
+        <f>N44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>66.5</v>
+      </c>
+      <c r="P44" s="1">
+        <f>O44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>60.6</v>
+      </c>
+      <c r="Q44" s="43">
+        <f>P44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>74.25</v>
+      </c>
+      <c r="R44" s="43">
+        <f>Q44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>74.25</v>
+      </c>
+      <c r="S44" s="43">
+        <f>R44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>74.25</v>
+      </c>
+      <c r="T44" s="43">
+        <f>S44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>74.25</v>
+      </c>
+      <c r="U44" s="43">
+        <f>T44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>74.25</v>
+      </c>
+      <c r="V44" s="75">
+        <f>U44+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>74.25</v>
+      </c>
+      <c r="W44" s="66"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <f>B45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10</v>
+      </c>
+      <c r="D45" s="1">
+        <f>C45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-16.75</v>
+      </c>
+      <c r="E45" s="1">
+        <f>D45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <f>E45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-1.0499999999999998</v>
+      </c>
+      <c r="G45" s="1">
+        <f>F45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-11.05</v>
+      </c>
+      <c r="H45" s="1">
+        <f>G45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-21.75</v>
+      </c>
+      <c r="I45" s="1">
+        <f>H45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-9.8999999999999986</v>
+      </c>
+      <c r="J45" s="1">
+        <f>I45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-9.5499999999999989</v>
+      </c>
+      <c r="K45" s="1">
+        <f>J45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-15.6</v>
+      </c>
+      <c r="L45" s="1">
+        <f>K45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-20.85</v>
+      </c>
+      <c r="M45" s="1">
+        <f>L45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-40.85</v>
+      </c>
+      <c r="N45" s="1">
+        <f>M45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-70.849999999999994</v>
+      </c>
+      <c r="O45" s="1">
+        <f>N45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-70.849999999999994</v>
+      </c>
+      <c r="P45" s="1">
+        <f>O45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-57.849999999999994</v>
+      </c>
+      <c r="Q45" s="61">
+        <f>P45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-57.849999999999994</v>
+      </c>
+      <c r="R45" s="61">
+        <f>Q45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-57.849999999999994</v>
+      </c>
+      <c r="S45" s="61">
+        <f>R45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-57.849999999999994</v>
+      </c>
+      <c r="T45" s="61">
+        <f>S45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-57.849999999999994</v>
+      </c>
+      <c r="U45" s="61">
+        <f>T45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-57.849999999999994</v>
+      </c>
+      <c r="V45" s="39">
+        <f>U45+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-57.849999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="21">
+        <v>0</v>
+      </c>
+      <c r="C46" s="21">
+        <f>B46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="21">
+        <f>C46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
+        <f>D46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10</v>
+      </c>
+      <c r="F46" s="21">
+        <f>E46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-14</v>
+      </c>
+      <c r="G46" s="21">
+        <f>F46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-14</v>
+      </c>
+      <c r="H46" s="21">
+        <f>G46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="I46" s="1">
+        <f>H46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="J46" s="1">
+        <f>I46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-22.15</v>
+      </c>
+      <c r="K46" s="1">
+        <f>J46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-20.2</v>
+      </c>
+      <c r="L46" s="1">
+        <f>K46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-30.2</v>
+      </c>
+      <c r="M46" s="1">
+        <f>L46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="N46" s="1">
+        <f>M46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-39.599999999999994</v>
+      </c>
+      <c r="O46" s="1">
+        <f>N46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-39.599999999999994</v>
+      </c>
+      <c r="P46" s="1">
+        <f>O46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-44.3</v>
+      </c>
+      <c r="Q46" s="61">
+        <f>P46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-44.3</v>
+      </c>
+      <c r="R46" s="61">
+        <f>Q46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-44.3</v>
+      </c>
+      <c r="S46" s="61">
+        <f>R46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-44.3</v>
+      </c>
+      <c r="T46" s="61">
+        <f>S46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-44.3</v>
+      </c>
+      <c r="U46" s="61">
+        <f>T46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-44.3</v>
+      </c>
+      <c r="V46" s="39">
+        <f>U46+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-44.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="21">
+        <v>0</v>
+      </c>
+      <c r="C47" s="21">
+        <f>B47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="21">
+        <f>C47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E47" s="21">
+        <f>D47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.5</v>
+      </c>
+      <c r="F47" s="21">
+        <f>E47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.5</v>
+      </c>
+      <c r="G47" s="21">
+        <f>F47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="H47" s="21">
+        <f>G47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="I47" s="1">
+        <f>H47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-7.9500000000000011</v>
+      </c>
+      <c r="J47" s="1">
+        <f>I47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-37.950000000000003</v>
+      </c>
+      <c r="K47" s="1">
+        <f>J47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-21.500000000000004</v>
+      </c>
+      <c r="L47" s="1">
+        <f>K47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-2.2500000000000036</v>
+      </c>
+      <c r="M47" s="1">
+        <f>L47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-42.25</v>
+      </c>
+      <c r="N47" s="1">
+        <f>M47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="O47" s="1">
+        <f>N47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-33.5</v>
+      </c>
+      <c r="P47" s="1">
+        <f>O47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-24</v>
+      </c>
+      <c r="Q47" s="61">
+        <f>P47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-29</v>
+      </c>
+      <c r="R47" s="61">
+        <f>Q47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-29</v>
+      </c>
+      <c r="S47" s="61">
+        <f>R47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-29</v>
+      </c>
+      <c r="T47" s="61">
+        <f>S47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-29</v>
+      </c>
+      <c r="U47" s="61">
+        <f>T47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-29</v>
+      </c>
+      <c r="V47" s="39">
+        <f>U47+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="21">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21">
+        <f>B48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-3.45</v>
+      </c>
+      <c r="D48" s="21">
+        <f>C48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-17</v>
+      </c>
+      <c r="E48" s="21">
+        <f>D48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-15.9</v>
+      </c>
+      <c r="F48" s="21">
+        <f>E48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-3.9500000000000011</v>
+      </c>
+      <c r="G48" s="21">
+        <f>F48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-6.4500000000000011</v>
+      </c>
+      <c r="H48" s="21">
+        <f>G48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-15.250000000000002</v>
+      </c>
+      <c r="I48" s="1">
+        <f>H48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-16.5</v>
+      </c>
+      <c r="J48" s="1">
+        <f>I48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>20.149999999999999</v>
+      </c>
+      <c r="K48" s="1">
+        <f>J48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>3.2999999999999972</v>
+      </c>
+      <c r="L48" s="1">
+        <f>K48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="M48" s="1">
+        <f>L48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>23.45</v>
+      </c>
+      <c r="N48" s="1">
+        <f>M48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>66.349999999999994</v>
+      </c>
+      <c r="O48" s="1">
+        <f>N48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>62.05</v>
+      </c>
+      <c r="P48" s="1">
+        <f>O48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.75</v>
+      </c>
+      <c r="Q48" s="61">
+        <f>P48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.8</v>
+      </c>
+      <c r="R48" s="61">
+        <f>Q48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.8</v>
+      </c>
+      <c r="S48" s="61">
+        <f>R48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.8</v>
+      </c>
+      <c r="T48" s="61">
+        <f>S48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.8</v>
+      </c>
+      <c r="U48" s="61">
+        <f>T48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.8</v>
+      </c>
+      <c r="V48" s="39">
+        <f>U48+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <f>B49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <f>C49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <f>D49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f>E49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="G49" s="1">
+        <f>F49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="H49" s="1">
+        <f>G49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="I49" s="1">
+        <f>H49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="J49" s="1">
+        <f>I49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="K49" s="1">
+        <f>J49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="L49" s="1">
+        <f>K49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="M49" s="1">
+        <f>L49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="N49" s="1">
+        <f>M49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="O49" s="1">
+        <f>N49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="P49" s="1">
+        <f>O49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="Q49" s="61">
+        <f>P49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="R49" s="61">
+        <f>Q49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="S49" s="61">
+        <f>R49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="T49" s="61">
+        <f>S49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="U49" s="61">
+        <f>T49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+      <c r="V49" s="39">
+        <f>U49+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="21">
+        <v>0</v>
+      </c>
+      <c r="C50" s="21">
+        <f>B50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="D50" s="21">
+        <f>C50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>11.15</v>
+      </c>
+      <c r="E50" s="21">
+        <f>D50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>21.4</v>
+      </c>
+      <c r="F50" s="21">
+        <f>E50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>14.45</v>
+      </c>
+      <c r="G50" s="21">
+        <f>F50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>14.45</v>
+      </c>
+      <c r="H50" s="21">
+        <f>G50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>15.5</v>
+      </c>
+      <c r="I50" s="1">
+        <f>H50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="J50" s="1">
+        <f>I50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="K50" s="1">
+        <f>J50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>19.75</v>
+      </c>
+      <c r="L50" s="1">
+        <f>K50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>13.7</v>
+      </c>
+      <c r="M50" s="1">
+        <f>L50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>23.5</v>
+      </c>
+      <c r="N50" s="1">
+        <f>M50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>21.9</v>
+      </c>
+      <c r="O50" s="1">
+        <f>N50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.4500000000000028</v>
+      </c>
+      <c r="P50" s="1">
+        <f>O50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>2.9499999999999957</v>
+      </c>
+      <c r="Q50" s="61">
+        <f>P50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.7500000000000036</v>
+      </c>
+      <c r="R50" s="61">
+        <f>Q50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.7500000000000036</v>
+      </c>
+      <c r="S50" s="61">
+        <f>R50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.7500000000000036</v>
+      </c>
+      <c r="T50" s="61">
+        <f>S50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.7500000000000036</v>
+      </c>
+      <c r="U50" s="61">
+        <f>T50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.7500000000000036</v>
+      </c>
+      <c r="V50" s="39">
+        <f>U50+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>-5.7500000000000036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="50">
+        <v>0</v>
+      </c>
+      <c r="C51" s="50">
+        <f>B51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="50">
+        <f>C51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="50">
+        <f>D51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="50">
+        <f>E51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="50">
+        <f>F51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="50">
+        <f>G51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="I51" s="6">
+        <f>H51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="J51" s="6">
+        <f>I51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="K51" s="6">
+        <f>J51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="L51" s="6">
+        <f>K51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="M51" s="6">
+        <f>L51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="N51" s="6">
+        <f>M51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="O51" s="6">
+        <f>N51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="P51" s="6">
+        <f>O51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="Q51" s="6">
+        <f>P51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="R51" s="6">
+        <f>Q51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="S51" s="6">
+        <f>R51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="T51" s="6">
+        <f>S51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="U51" s="6">
+        <f>T51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="V51" s="40">
+        <f>U51+VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE)</f>
+        <v>10.149999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A42:V42"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B44:B51" calculatedColumn="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8C19E-52AA-114E-A138-C334324D6AA0}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <f t="shared" ref="B2:B9" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23">
+        <f>SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f>SUM(C2:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:G11" si="1">SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="43"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9448D082-ECC7-C54D-ACB9-C518F3CF977A}">
   <sheetPr codeName="Sheet3"/>

--- a/Poker_Chip_Tracker.xlsx
+++ b/Poker_Chip_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianrogg/PycharmProjects/Spade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianrogg/IdeaProjects/Pokerapp/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC1A1A6-7BF4-CB4C-BE65-69044C155529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0A3F7-E78B-8941-B8CF-4F6752FA90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="54">
   <si>
     <t>5-point chips</t>
   </si>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,16 +263,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,20 +307,8 @@
         <bgColor rgb="FF4BACC6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor rgb="FFB7DEE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
-        <bgColor rgb="FFDAEEF3"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="42">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -752,30 +732,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -798,7 +754,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,10 +766,23 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,34 +791,21 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -936,9 +892,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -949,23 +902,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,6 +924,129 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="172">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -1044,114 +1114,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3382,71 +3344,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$44:$R$44</c:f>
+              <c:f>Overview!$B$44:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3497,6 +3400,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>68.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.849999999999987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.449999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3534,71 +3446,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$45:$R$45</c:f>
+              <c:f>Overview!$B$45:$U$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3649,6 +3502,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-58.649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-58.649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-64.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3686,71 +3548,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$46:$R$46</c:f>
+              <c:f>Overview!$B$46:$U$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3800,6 +3603,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.84999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.84999999999999964</c:v>
                 </c:pt>
               </c:numCache>
@@ -3838,71 +3650,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$47:$R$47</c:f>
+              <c:f>Overview!$B$47:$U$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3953,6 +3706,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-44.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-44.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-44.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-46.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,71 +3752,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$48:$R$48</c:f>
+              <c:f>Overview!$B$48:$U$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4105,6 +3808,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-34.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-34.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-44.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4142,71 +3854,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$49:$R$49</c:f>
+              <c:f>Overview!$B$49:$U$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4257,6 +3910,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>52.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,71 +3958,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$50:$R$50</c:f>
+              <c:f>Overview!$B$50:$U$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4410,6 +4013,15 @@
                   <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4427,11 +4039,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$A$52</c:f>
+              <c:f>Overview!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Eliah</c:v>
+                  <c:v>Jonas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4450,121 +4062,71 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$B$43:$R$43</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Day 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$52:$R$52</c:f>
+              <c:f>Overview!$B$51:$U$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>17.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>21.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>-5.4500000000000028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>2.9499999999999957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>-5.7500000000000036</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.149999999999999</c:v>
+                  <c:v>-1.2500000000000036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4573,6 +4135,110 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF3D-4B86-8A78-CD4117DFFD08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eliah</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$B$52:$U$52</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCE5-6A45-A58F-3C9E51D6DDBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5549,10 +5215,10 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DEF225DF-7B69-BD4A-95F2-F0DE0BD9D0F1}" name="Day_17" displayName="Day_17" ref="A1:G7" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74">
-  <autoFilter ref="A1:G7" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-    <sortCondition ref="A1:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DEF225DF-7B69-BD4A-95F2-F0DE0BD9D0F1}" name="Day_17" displayName="Day_17" ref="A1:G5" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74">
+  <autoFilter ref="A1:G5" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+    <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6AB28D11-ECDD-BC4C-AD81-2FCE9A4DFC64}" name="SPIELER" dataDxfId="73"/>
@@ -5570,10 +5236,10 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{06DE269F-4589-F948-8795-DC2E1F931BB7}" name="Day_18" displayName="Day_18" ref="A1:G7" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68">
-  <autoFilter ref="A1:G7" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-    <sortCondition ref="A1:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{06DE269F-4589-F948-8795-DC2E1F931BB7}" name="Day_18" displayName="Day_18" ref="A1:G6" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68">
+  <autoFilter ref="A1:G6" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+    <sortCondition ref="A1:A6"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3B0A7A6F-908A-744E-B20B-2DC52BE6C8D3}" name="SPIELER" dataDxfId="67"/>
@@ -5730,98 +5396,98 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}" name="Table27" displayName="Table27" ref="A1:W10" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}" name="Table27" displayName="Table27" ref="A1:W10" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:W10" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W10">
-    <sortCondition descending="1" ref="A1:A10"/>
+    <sortCondition descending="1" ref="W1:W10"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{92EF8CB9-CB80-E148-A598-263592A13A8C}" name="SPIELER" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{7813C1CF-1A9B-6046-832A-CC2ECA89FAB6}" name="Day 1 " dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{92EF8CB9-CB80-E148-A598-263592A13A8C}" name="SPIELER" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7813C1CF-1A9B-6046-832A-CC2ECA89FAB6}" name="Day 1 " dataDxfId="21">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B660C4FA-C14B-004F-B492-5035CEBD7DEF}" name="Day 2 " dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{B660C4FA-C14B-004F-B492-5035CEBD7DEF}" name="Day 2 " dataDxfId="20">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6C4A40C8-4461-204D-B46B-3268E768BF76}" name="Day 3" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{6C4A40C8-4461-204D-B46B-3268E768BF76}" name="Day 3" dataDxfId="19">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{399A3E3E-1727-0D4F-A7B6-EB361603F2DA}" name="Day 4" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{399A3E3E-1727-0D4F-A7B6-EB361603F2DA}" name="Day 4" dataDxfId="18">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{72F7BE65-A228-984D-B729-A3258E48126F}" name="Day 5" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{72F7BE65-A228-984D-B729-A3258E48126F}" name="Day 5" dataDxfId="17">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A0E7C1BE-EC9C-804A-A04D-1BEC5B3371EE}" name="Day 6" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{A0E7C1BE-EC9C-804A-A04D-1BEC5B3371EE}" name="Day 6" dataDxfId="16">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5AF67BEE-5FB5-B24B-9631-F7CE0DBE78B8}" name="Day 7" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{5AF67BEE-5FB5-B24B-9631-F7CE0DBE78B8}" name="Day 7" dataDxfId="15">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{89090C79-1C04-B341-BE68-3B5E2E234225}" name="Day 8" dataDxfId="20">
+    <tableColumn id="10" xr3:uid="{89090C79-1C04-B341-BE68-3B5E2E234225}" name="Day 8" dataDxfId="14">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F382EE00-4228-DE42-840E-5F51A3AB0974}" name="Day 9" dataDxfId="19">
+    <tableColumn id="11" xr3:uid="{F382EE00-4228-DE42-840E-5F51A3AB0974}" name="Day 9" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B0182922-281E-024C-BB09-AD769F3B4FB4}" name="Day 10" dataDxfId="18">
+    <tableColumn id="12" xr3:uid="{B0182922-281E-024C-BB09-AD769F3B4FB4}" name="Day 10" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{99A4EB56-D651-4BC2-A5CA-859F1A3F15B0}" name="Day 11" dataDxfId="17">
+    <tableColumn id="14" xr3:uid="{99A4EB56-D651-4BC2-A5CA-859F1A3F15B0}" name="Day 11" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{F9993AEC-803F-4BA7-968D-107436BB462C}" name="Day 12" dataDxfId="16">
+    <tableColumn id="15" xr3:uid="{F9993AEC-803F-4BA7-968D-107436BB462C}" name="Day 12" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A5F9D543-03D6-4394-A34A-49965C66E32F}" name="Day 13" dataDxfId="15">
+    <tableColumn id="16" xr3:uid="{A5F9D543-03D6-4394-A34A-49965C66E32F}" name="Day 13" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F80688AC-2797-4B24-810A-7953A26A1886}" name="Day 14" dataDxfId="14">
+    <tableColumn id="17" xr3:uid="{F80688AC-2797-4B24-810A-7953A26A1886}" name="Day 14" dataDxfId="8">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{0C41B488-8226-4607-9626-810AA705FB58}" name="Day 15" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{0C41B488-8226-4607-9626-810AA705FB58}" name="Day 15" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F83DB11A-8AF7-9442-89F2-CAFCE95DA53F}" name="Day 16" dataDxfId="12">
+    <tableColumn id="22" xr3:uid="{F83DB11A-8AF7-9442-89F2-CAFCE95DA53F}" name="Day 16" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{8F949639-2CF9-854C-8FBD-732212C46E8C}" name="Day 17" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{8F949639-2CF9-854C-8FBD-732212C46E8C}" name="Day 17" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{46A12C53-59A6-0642-9030-B8F98C2A5EB0}" name="Day 18" dataDxfId="10">
+    <tableColumn id="24" xr3:uid="{46A12C53-59A6-0642-9030-B8F98C2A5EB0}" name="Day 18" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{6596C832-E54B-EF46-86CB-26846218D986}" name="Day 19" dataDxfId="9">
+    <tableColumn id="25" xr3:uid="{6596C832-E54B-EF46-86CB-26846218D986}" name="Day 19" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{84800F19-5824-E94C-8341-DC81AC34B2C0}" name="Day 20" dataDxfId="8">
+    <tableColumn id="26" xr3:uid="{84800F19-5824-E94C-8341-DC81AC34B2C0}" name="Day 20" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E5EE923F-05E4-6546-B9F0-0B9333029A6A}" name="Σ" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{E5EE923F-05E4-6546-B9F0-0B9333029A6A}" name="Σ" dataDxfId="1">
       <calculatedColumnFormula>SUM(B2:U2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{96EC457F-8EF5-9140-8717-7527BFB349F9}" name="SPIELER2" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{96EC457F-8EF5-9140-8717-7527BFB349F9}" name="SPIELER2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}" name="Day_X" displayName="Day_X" ref="A1:G7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}" name="Day_X" displayName="Day_X" ref="A1:G7" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28">
   <autoFilter ref="A1:G7" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CAF30B83-9101-DA49-B8E3-FF4E4D4F12E6}" name="SPIELER" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{831EDA8E-0521-854F-89C3-E9F66179C1ED}" name="WIN / LOSS" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{CAF30B83-9101-DA49-B8E3-FF4E4D4F12E6}" name="SPIELER" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{831EDA8E-0521-854F-89C3-E9F66179C1ED}" name="WIN / LOSS" dataDxfId="26">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{627E6F5A-0CAD-B24D-BFC0-3F65FBBD5A54}" name="Total Bet" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{627E6F5A-0CAD-B24D-BFC0-3F65FBBD5A54}" name="Total Bet" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{8B9ED35C-24C5-6844-B237-43D33B16196A}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{E4DF8B73-C3F7-C348-BBAC-F5854E3538E0}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{0FF71DCD-2492-7143-B294-2EFF6F4A222D}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{5ECE13F4-1183-1844-B734-A3542720D868}" name="100-point chips" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{5ECE13F4-1183-1844-B734-A3542720D868}" name="100-point chips" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8511,10 +8177,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC14A87-926E-FB4E-BF38-4E4E1847B651}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="188" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8555,23 +8221,23 @@
         <v>5</v>
       </c>
       <c r="B2" s="17">
-        <f t="shared" ref="B2:B7" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
-        <v>0</v>
+        <f t="shared" ref="B2:B5" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
+        <v>4.0500000000000007</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8580,10 +8246,10 @@
       </c>
       <c r="B3" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8604,138 +8270,90 @@
       </c>
       <c r="B4" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>1.8499999999999996</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="22">
-        <f t="shared" ref="B9:G9" si="1">SUM(B2:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B7" s="22">
+        <f t="shared" ref="B7:G7" si="1">SUM(B2:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="24">
+        <v>50</v>
+      </c>
+      <c r="D7" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
+        <v>30</v>
+      </c>
+      <c r="E7" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="24">
+        <v>60</v>
+      </c>
+      <c r="F7" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
+        <v>50</v>
+      </c>
+      <c r="G7" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="2"/>
-      <c r="F10" s="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="42"/>
+      <c r="C8" s="2"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8747,10 +8365,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122F9185-69C9-A348-A1F8-7ED321EEC7E0}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="265" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8791,23 +8409,23 @@
         <v>5</v>
       </c>
       <c r="B2" s="17">
-        <f t="shared" ref="B2:B7" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
-        <v>0</v>
+        <f t="shared" ref="B2:B6" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
+        <v>19.350000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8816,22 +8434,22 @@
       </c>
       <c r="B3" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9499999999999993</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8843,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8855,123 +8473,99 @@
         <v>0</v>
       </c>
       <c r="G4" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.4499999999999993</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>-18.850000000000001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
+      <c r="A7" s="41"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="22">
-        <f t="shared" ref="B9:G9" si="1">SUM(B2:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B8" s="22">
+        <f t="shared" ref="B8:G8" si="1">SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="24">
+        <v>70</v>
+      </c>
+      <c r="D8" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
+        <v>42</v>
+      </c>
+      <c r="E8" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="24">
+        <v>84</v>
+      </c>
+      <c r="F8" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
+        <v>70</v>
+      </c>
+      <c r="G8" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="2"/>
-      <c r="F10" s="9"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="42"/>
+      <c r="C9" s="2"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8985,8 +8579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5389194-3CFE-5849-A7F5-A7C6F5BECF20}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="303" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9028,22 +8622,22 @@
       </c>
       <c r="B2" s="17">
         <f t="shared" ref="B2:B7" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -9052,22 +8646,22 @@
       </c>
       <c r="B3" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -9076,22 +8670,22 @@
       </c>
       <c r="B4" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -9100,22 +8694,22 @@
       </c>
       <c r="B5" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.0999999999999996</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -9124,22 +8718,22 @@
       </c>
       <c r="B6" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5500000000000007</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9148,22 +8742,22 @@
       </c>
       <c r="B7" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9185,23 +8779,23 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G9" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -9739,8 +9333,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="K11" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9821,7 +9415,7 @@
       <c r="X1" s="51"/>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AD1" s="57" t="s">
         <v>28</v>
       </c>
       <c r="AE1" t="s">
@@ -9904,15 +9498,15 @@
       </c>
       <c r="R2" s="42">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="S2" s="42">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-18.850000000000001</v>
       </c>
       <c r="T2" s="42">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="U2" s="42">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -9920,29 +9514,29 @@
       </c>
       <c r="V2" s="37">
         <f t="shared" ref="V2:V10" si="0">SUM(B2:U2)</f>
-        <v>68.849999999999994</v>
-      </c>
-      <c r="W2" s="52" t="s">
+        <v>55.449999999999989</v>
+      </c>
+      <c r="W2" s="47" t="s">
         <v>7</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AD2" s="63" t="s">
+      <c r="AD2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
-        <v>134.19999999999999</v>
-      </c>
-      <c r="AF2" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>-59.949999999999996</v>
-      </c>
-      <c r="AG2" s="67">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
-        <v>1.4923547400611621</v>
+      <c r="AE2" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>139.64999999999998</v>
+      </c>
+      <c r="AF2" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>-84.199999999999989</v>
+      </c>
+      <c r="AG2" s="58">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
+        <v>1.2062189591880803</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -10019,11 +9613,11 @@
       </c>
       <c r="S3" s="1">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-8.4499999999999993</v>
       </c>
       <c r="T3" s="1">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>2.5500000000000007</v>
       </c>
       <c r="U3" s="1">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10031,34 +9625,34 @@
       </c>
       <c r="V3" s="38">
         <f t="shared" si="0"/>
-        <v>-58.649999999999991</v>
-      </c>
-      <c r="W3" s="53" t="s">
+        <v>-64.55</v>
+      </c>
+      <c r="W3" s="45" t="s">
         <v>4</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AD3" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE3" s="59">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
-        <v>43.95</v>
-      </c>
-      <c r="AF3" s="59">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>-101.8</v>
-      </c>
-      <c r="AG3" s="68">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
-        <v>0.97138998035363477</v>
+      <c r="AD3" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>46.5</v>
+      </c>
+      <c r="AF3" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>-111.05</v>
+      </c>
+      <c r="AG3" s="58">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
+        <v>0.9212066636650158</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10070,11 +9664,11 @@
       </c>
       <c r="D4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10082,7 +9676,7 @@
       </c>
       <c r="G4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>3.8000000000000007</v>
       </c>
       <c r="H4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10090,23 +9684,23 @@
       </c>
       <c r="I4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-11.95</v>
       </c>
       <c r="J4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>1.9499999999999993</v>
       </c>
       <c r="K4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="M4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-5.3000000000000007</v>
       </c>
       <c r="N4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10114,7 +9708,7 @@
       </c>
       <c r="O4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-4.7</v>
       </c>
       <c r="P4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10122,7 +9716,7 @@
       </c>
       <c r="Q4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0.84999999999999964</v>
+        <v>0</v>
       </c>
       <c r="R4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10134,7 +9728,7 @@
       </c>
       <c r="T4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-2.0999999999999996</v>
       </c>
       <c r="U4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10142,32 +9736,34 @@
       </c>
       <c r="V4" s="38">
         <f t="shared" si="0"/>
-        <v>0.84999999999999964</v>
-      </c>
-      <c r="W4" s="53"/>
+        <v>-46.4</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>11</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AD4" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE4" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="67" t="str">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
-        <v/>
+      <c r="AD4" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>5.75</v>
+      </c>
+      <c r="AF4" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>-52.150000000000013</v>
+      </c>
+      <c r="AG4" s="58">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
+        <v>0.44103547459252146</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10175,67 +9771,67 @@
       </c>
       <c r="C5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-10</v>
+        <v>-9.5</v>
       </c>
       <c r="E5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="G5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>3.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-10.15</v>
       </c>
       <c r="I5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-11.95</v>
+        <v>-30</v>
       </c>
       <c r="J5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>1.9499999999999993</v>
+        <v>16.45</v>
       </c>
       <c r="K5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-10</v>
+        <v>19.25</v>
       </c>
       <c r="L5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-4.0999999999999996</v>
+        <v>-40</v>
       </c>
       <c r="M5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-5.3000000000000007</v>
+        <v>2.5500000000000007</v>
       </c>
       <c r="N5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="O5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-4.7</v>
+        <v>9.5</v>
       </c>
       <c r="P5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Q5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="R5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10243,7 +9839,7 @@
       </c>
       <c r="T5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="U5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10251,110 +9847,110 @@
       </c>
       <c r="V5" s="38">
         <f t="shared" si="0"/>
-        <v>-44.3</v>
-      </c>
-      <c r="W5" s="53" t="s">
-        <v>11</v>
+        <v>-44.9</v>
+      </c>
+      <c r="W5" s="45" t="s">
+        <v>6</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AD5" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE5" s="59">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
-        <v>5.75</v>
-      </c>
-      <c r="AF5" s="59">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>-50.050000000000011</v>
-      </c>
-      <c r="AG5" s="68">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
-        <v>0.40209790209790203</v>
+      <c r="AD5" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>69.75</v>
+      </c>
+      <c r="AF5" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>-114.65</v>
+      </c>
+      <c r="AG5" s="58">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
+        <v>0.53232664631487125</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-3.45</v>
       </c>
       <c r="C6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>4</v>
+        <v>-13.55</v>
       </c>
       <c r="D6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-9.5</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="E6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>11.95</v>
       </c>
       <c r="F6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>7.6999999999999993</v>
+        <v>-2.5</v>
       </c>
       <c r="G6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="H6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-10.15</v>
+        <v>-1.25</v>
       </c>
       <c r="I6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-30</v>
+        <v>36.65</v>
       </c>
       <c r="J6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>16.45</v>
+        <v>-16.850000000000001</v>
       </c>
       <c r="K6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>19.25</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="L6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-40</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="M6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>2.5500000000000007</v>
+        <v>42.9</v>
       </c>
       <c r="N6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>6.1999999999999993</v>
+        <v>-4.3000000000000007</v>
       </c>
       <c r="O6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>9.5</v>
+        <v>-20.3</v>
       </c>
       <c r="P6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-5</v>
+        <v>5.0000000000000711E-2</v>
       </c>
       <c r="Q6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-10</v>
+        <v>10.850000000000001</v>
       </c>
       <c r="R6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="S6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>7.9499999999999993</v>
       </c>
       <c r="T6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="U6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10362,110 +9958,110 @@
       </c>
       <c r="V6" s="38">
         <f t="shared" si="0"/>
-        <v>-39</v>
-      </c>
-      <c r="W6" s="53" t="s">
-        <v>6</v>
+        <v>56.3</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>8</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AD6" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
-        <v>65.650000000000006</v>
-      </c>
-      <c r="AF6" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>-94.65</v>
-      </c>
-      <c r="AG6" s="67">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
-        <v>0.49543430684476653</v>
+      <c r="AD6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>137.29999999999998</v>
+      </c>
+      <c r="AF6" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>-81</v>
+      </c>
+      <c r="AG6" s="58">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
+        <v>1.5255555555555553</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-3.45</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="C7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-13.55</v>
+        <v>9</v>
       </c>
       <c r="D7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>1.0999999999999996</v>
+        <v>10.25</v>
       </c>
       <c r="E7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>11.95</v>
+        <v>-6.9499999999999993</v>
       </c>
       <c r="F7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-8.8000000000000007</v>
+        <v>1.0500000000000007</v>
       </c>
       <c r="H7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-1.25</v>
+        <v>-20</v>
       </c>
       <c r="I7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>36.65</v>
+        <v>22.15</v>
       </c>
       <c r="J7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-16.850000000000001</v>
+        <v>2.1000000000000014</v>
       </c>
       <c r="K7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>11.100000000000001</v>
+        <v>-6.05</v>
       </c>
       <c r="L7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>9.0500000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>42.9</v>
+        <v>-1.5999999999999996</v>
       </c>
       <c r="N7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-4.3000000000000007</v>
+        <v>-27.35</v>
       </c>
       <c r="O7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-20.3</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="P7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>5.0000000000000711E-2</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="Q7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>10.850000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="R7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="S7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="T7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10473,29 +10069,29 @@
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>52.65</v>
-      </c>
-      <c r="W7" s="53" t="s">
-        <v>8</v>
+        <v>22.4</v>
+      </c>
+      <c r="W7" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AD7" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE7" s="59">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
-        <v>112.8</v>
-      </c>
-      <c r="AF7" s="59">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>-71</v>
-      </c>
-      <c r="AG7" s="68">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
-        <v>1.8156941649899396</v>
+      <c r="AD7" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>93.050000000000011</v>
+      </c>
+      <c r="AF7" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>-70.650000000000006</v>
+      </c>
+      <c r="AG7" s="58">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
+        <v>0.65852795470629866</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -10586,48 +10182,48 @@
         <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
-      <c r="W8" s="53" t="s">
-        <v>49</v>
+      <c r="W8" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AD8" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE8" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
+      <c r="AD8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
         <v>10.7</v>
       </c>
-      <c r="AF8" s="58">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="67" t="str">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+      <c r="AF8" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="58" t="str">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>2.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="C9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="E9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-6.9499999999999993</v>
+        <v>0</v>
       </c>
       <c r="F9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10635,47 +10231,47 @@
       </c>
       <c r="G9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>1.0500000000000007</v>
+        <v>10.149999999999999</v>
       </c>
       <c r="H9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="I9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>22.15</v>
+        <v>0</v>
       </c>
       <c r="J9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>2.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="K9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-6.05</v>
+        <v>0</v>
       </c>
       <c r="L9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-1.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="N9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-27.35</v>
+        <v>0</v>
       </c>
       <c r="O9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>8.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="P9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="R9" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10695,22 +10291,34 @@
       </c>
       <c r="V9" s="38">
         <f t="shared" si="0"/>
-        <v>-1.2500000000000036</v>
-      </c>
-      <c r="W9" s="53" t="s">
-        <v>5</v>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="72"/>
+      <c r="AD9" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE9" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="AF9" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="58" t="str">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B10" s="49">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10734,7 +10342,7 @@
       </c>
       <c r="G10" s="49">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>10.149999999999999</v>
+        <v>0</v>
       </c>
       <c r="H10" s="49">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10774,7 +10382,7 @@
       </c>
       <c r="Q10" s="49">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>0.84999999999999964</v>
       </c>
       <c r="R10" s="49">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
@@ -10794,28 +10402,28 @@
       </c>
       <c r="V10" s="39">
         <f t="shared" si="0"/>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="W10" s="54" t="s">
-        <v>48</v>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="W10" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AD10" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="60">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")</f>
-        <v>10.149999999999999</v>
-      </c>
-      <c r="AF10" s="60">
-        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="69" t="str">
-        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&gt;0")) /
-         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 15]], "&lt;0")), "")</f>
+      <c r="AD10" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")</f>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="AF10" s="55">
+        <f>SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="58" t="str">
+        <f>IFERROR((SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&gt;0")) /
+         (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
         <v/>
       </c>
     </row>
@@ -10895,7 +10503,7 @@
       </c>
       <c r="Q12" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.7763568394002505E-15</v>
       </c>
       <c r="R12" s="34">
         <f t="shared" si="2"/>
@@ -10915,34 +10523,34 @@
       </c>
       <c r="V12" s="34">
         <f>SUM(Table27[Σ])</f>
-        <v>0</v>
+        <v>-1.2434497875801753E-14</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
     </row>
     <row r="43" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
@@ -10975,40 +10583,40 @@
       <c r="J43" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="55" t="s">
+      <c r="K43" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="56" t="s">
+      <c r="L43" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="57" t="s">
+      <c r="M43" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="57" t="s">
+      <c r="N43" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="O43" s="57" t="s">
+      <c r="O43" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="57" t="s">
+      <c r="P43" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="Q43" s="57" t="s">
+      <c r="Q43" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="57" t="s">
+      <c r="R43" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="S43" s="57" t="s">
+      <c r="S43" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="T43" s="57" t="s">
+      <c r="T43" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="U43" s="57" t="s">
+      <c r="U43" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="V43" s="57" t="s">
+      <c r="V43" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11085,21 +10693,21 @@
       </c>
       <c r="S44" s="42">
         <f>R44+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>68.849999999999994</v>
+        <v>70.699999999999989</v>
       </c>
       <c r="T44" s="42">
         <f>S44+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>68.849999999999994</v>
+        <v>51.849999999999987</v>
       </c>
       <c r="U44" s="42">
         <f>T44+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>68.849999999999994</v>
+        <v>55.449999999999989</v>
       </c>
       <c r="V44" s="42">
         <f>U44+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>68.849999999999994</v>
-      </c>
-      <c r="W44" s="61"/>
+        <v>55.449999999999989</v>
+      </c>
+      <c r="W44" s="56"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
@@ -11179,15 +10787,15 @@
       </c>
       <c r="T45" s="1">
         <f>S45+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-58.649999999999991</v>
+        <v>-67.099999999999994</v>
       </c>
       <c r="U45" s="1">
         <f>T45+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-58.649999999999991</v>
+        <v>-64.55</v>
       </c>
       <c r="V45" s="38">
         <f>U45+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-58.649999999999991</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -11359,11 +10967,11 @@
       </c>
       <c r="U47" s="1">
         <f>T47+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-44.3</v>
+        <v>-46.4</v>
       </c>
       <c r="V47" s="38">
         <f>U47+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-44.3</v>
+        <v>-46.4</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -11439,19 +11047,19 @@
       </c>
       <c r="S48" s="1">
         <f>R48+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-39</v>
+        <v>-34.9</v>
       </c>
       <c r="T48" s="1">
         <f>S48+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-39</v>
+        <v>-34.9</v>
       </c>
       <c r="U48" s="1">
         <f>T48+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-39</v>
+        <v>-44.9</v>
       </c>
       <c r="V48" s="38">
         <f>U48+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-39</v>
+        <v>-44.9</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -11527,19 +11135,19 @@
       </c>
       <c r="S49" s="1">
         <f>R49+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>52.65</v>
+        <v>42.65</v>
       </c>
       <c r="T49" s="1">
         <f>S49+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>52.65</v>
+        <v>50.599999999999994</v>
       </c>
       <c r="U49" s="1">
         <f>T49+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>52.65</v>
+        <v>56.3</v>
       </c>
       <c r="V49" s="38">
         <f>U49+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>52.65</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -11703,19 +11311,19 @@
       </c>
       <c r="S51" s="1">
         <f>R51+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-1.2500000000000036</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="T51" s="1">
         <f>S51+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-1.2500000000000036</v>
+        <v>22.15</v>
       </c>
       <c r="U51" s="1">
         <f>T51+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-1.2500000000000036</v>
+        <v>22.4</v>
       </c>
       <c r="V51" s="38">
         <f>U51+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-1.2500000000000036</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12013,7 +11621,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="73"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">

--- a/Poker_Chip_Tracker.xlsx
+++ b/Poker_Chip_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianrogg/IdeaProjects/Pokerapp/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0A3F7-E78B-8941-B8CF-4F6752FA90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D7864-A5ED-6445-8C17-DDFD49792582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="55">
   <si>
     <t>5-point chips</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Nikita</t>
+  </si>
+  <si>
+    <t>=IFERROR(AVERAGE(Table27[@[Day 1]:[Day 19]]), "")</t>
   </si>
 </sst>
 </file>
@@ -925,129 +928,6 @@
   </cellStyles>
   <dxfs count="172">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1114,6 +994,129 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3346,10 +3349,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$44:$U$44</c:f>
+              <c:f>Overview!$B$44:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3409,6 +3412,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>55.449999999999989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.449999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,10 +3454,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$45:$U$45</c:f>
+              <c:f>Overview!$B$45:$V$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3510,6 +3516,9 @@
                   <c:v>-67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>-64.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-64.55</c:v>
                 </c:pt>
               </c:numCache>
@@ -3550,10 +3559,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$46:$U$46</c:f>
+              <c:f>Overview!$B$46:$V$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3612,6 +3621,9 @@
                   <c:v>0.84999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.84999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.84999999999999964</c:v>
                 </c:pt>
               </c:numCache>
@@ -3652,10 +3664,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$47:$U$47</c:f>
+              <c:f>Overview!$B$47:$V$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3715,6 +3727,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-46.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-38.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3754,10 +3769,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$48:$U$48</c:f>
+              <c:f>Overview!$B$48:$V$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3817,6 +3832,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-44.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-46.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3856,10 +3874,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$49:$U$49</c:f>
+              <c:f>Overview!$B$49:$V$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3919,6 +3937,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>56.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,10 +3981,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$50:$U$50</c:f>
+              <c:f>Overview!$B$50:$V$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4022,6 +4043,9 @@
                   <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4064,10 +4088,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$51:$U$51</c:f>
+              <c:f>Overview!$B$51:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4127,6 +4151,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,10 +4195,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$B$52:$U$52</c:f>
+              <c:f>Overview!$B$52:$V$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€";[Red]\-#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4230,6 +4257,9 @@
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>10.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>10.149999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5396,98 +5426,98 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}" name="Table27" displayName="Table27" ref="A1:W10" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}" name="Table27" displayName="Table27" ref="A1:W10" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:W10" xr:uid="{7F2A60CB-FD54-2A40-923C-BFD75E7A0945}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W10">
     <sortCondition descending="1" ref="W1:W10"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{92EF8CB9-CB80-E148-A598-263592A13A8C}" name="SPIELER" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7813C1CF-1A9B-6046-832A-CC2ECA89FAB6}" name="Day 1 " dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{92EF8CB9-CB80-E148-A598-263592A13A8C}" name="SPIELER" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{7813C1CF-1A9B-6046-832A-CC2ECA89FAB6}" name="Day 1 " dataDxfId="27">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_1[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B660C4FA-C14B-004F-B492-5035CEBD7DEF}" name="Day 2 " dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{B660C4FA-C14B-004F-B492-5035CEBD7DEF}" name="Day 2 " dataDxfId="26">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_2[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6C4A40C8-4461-204D-B46B-3268E768BF76}" name="Day 3" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{6C4A40C8-4461-204D-B46B-3268E768BF76}" name="Day 3" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_3[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{399A3E3E-1727-0D4F-A7B6-EB361603F2DA}" name="Day 4" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{399A3E3E-1727-0D4F-A7B6-EB361603F2DA}" name="Day 4" dataDxfId="24">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_4[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{72F7BE65-A228-984D-B729-A3258E48126F}" name="Day 5" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{72F7BE65-A228-984D-B729-A3258E48126F}" name="Day 5" dataDxfId="23">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_5[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A0E7C1BE-EC9C-804A-A04D-1BEC5B3371EE}" name="Day 6" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{A0E7C1BE-EC9C-804A-A04D-1BEC5B3371EE}" name="Day 6" dataDxfId="22">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_6[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5AF67BEE-5FB5-B24B-9631-F7CE0DBE78B8}" name="Day 7" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{5AF67BEE-5FB5-B24B-9631-F7CE0DBE78B8}" name="Day 7" dataDxfId="21">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_7[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{89090C79-1C04-B341-BE68-3B5E2E234225}" name="Day 8" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{89090C79-1C04-B341-BE68-3B5E2E234225}" name="Day 8" dataDxfId="20">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_8[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F382EE00-4228-DE42-840E-5F51A3AB0974}" name="Day 9" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{F382EE00-4228-DE42-840E-5F51A3AB0974}" name="Day 9" dataDxfId="19">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_9[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B0182922-281E-024C-BB09-AD769F3B4FB4}" name="Day 10" dataDxfId="12">
+    <tableColumn id="12" xr3:uid="{B0182922-281E-024C-BB09-AD769F3B4FB4}" name="Day 10" dataDxfId="18">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_10[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{99A4EB56-D651-4BC2-A5CA-859F1A3F15B0}" name="Day 11" dataDxfId="11">
+    <tableColumn id="14" xr3:uid="{99A4EB56-D651-4BC2-A5CA-859F1A3F15B0}" name="Day 11" dataDxfId="17">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_11[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{F9993AEC-803F-4BA7-968D-107436BB462C}" name="Day 12" dataDxfId="10">
+    <tableColumn id="15" xr3:uid="{F9993AEC-803F-4BA7-968D-107436BB462C}" name="Day 12" dataDxfId="16">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_12[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A5F9D543-03D6-4394-A34A-49965C66E32F}" name="Day 13" dataDxfId="9">
+    <tableColumn id="16" xr3:uid="{A5F9D543-03D6-4394-A34A-49965C66E32F}" name="Day 13" dataDxfId="15">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_13[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F80688AC-2797-4B24-810A-7953A26A1886}" name="Day 14" dataDxfId="8">
+    <tableColumn id="17" xr3:uid="{F80688AC-2797-4B24-810A-7953A26A1886}" name="Day 14" dataDxfId="14">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_14[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{0C41B488-8226-4607-9626-810AA705FB58}" name="Day 15" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{0C41B488-8226-4607-9626-810AA705FB58}" name="Day 15" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_15[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F83DB11A-8AF7-9442-89F2-CAFCE95DA53F}" name="Day 16" dataDxfId="6">
+    <tableColumn id="22" xr3:uid="{F83DB11A-8AF7-9442-89F2-CAFCE95DA53F}" name="Day 16" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_16[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{8F949639-2CF9-854C-8FBD-732212C46E8C}" name="Day 17" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{8F949639-2CF9-854C-8FBD-732212C46E8C}" name="Day 17" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_17[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{46A12C53-59A6-0642-9030-B8F98C2A5EB0}" name="Day 18" dataDxfId="4">
+    <tableColumn id="24" xr3:uid="{46A12C53-59A6-0642-9030-B8F98C2A5EB0}" name="Day 18" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_18[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{6596C832-E54B-EF46-86CB-26846218D986}" name="Day 19" dataDxfId="3">
+    <tableColumn id="25" xr3:uid="{6596C832-E54B-EF46-86CB-26846218D986}" name="Day 19" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_19[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{84800F19-5824-E94C-8341-DC81AC34B2C0}" name="Day 20" dataDxfId="2">
+    <tableColumn id="26" xr3:uid="{84800F19-5824-E94C-8341-DC81AC34B2C0}" name="Day 20" dataDxfId="8">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E5EE923F-05E4-6546-B9F0-0B9333029A6A}" name="Σ" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{E5EE923F-05E4-6546-B9F0-0B9333029A6A}" name="Σ" dataDxfId="7">
       <calculatedColumnFormula>SUM(B2:U2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{96EC457F-8EF5-9140-8717-7527BFB349F9}" name="SPIELER2" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{96EC457F-8EF5-9140-8717-7527BFB349F9}" name="SPIELER2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}" name="Day_X" displayName="Day_X" ref="A1:G7" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}" name="Day_X" displayName="Day_X" ref="A1:G7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
   <autoFilter ref="A1:G7" xr:uid="{11542CAC-C0C8-8145-B93D-526D752F01F7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CAF30B83-9101-DA49-B8E3-FF4E4D4F12E6}" name="SPIELER" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{831EDA8E-0521-854F-89C3-E9F66179C1ED}" name="WIN / LOSS" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{CAF30B83-9101-DA49-B8E3-FF4E4D4F12E6}" name="SPIELER" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{831EDA8E-0521-854F-89C3-E9F66179C1ED}" name="WIN / LOSS" dataDxfId="2">
       <calculatedColumnFormula>SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{627E6F5A-0CAD-B24D-BFC0-3F65FBBD5A54}" name="Total Bet" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{627E6F5A-0CAD-B24D-BFC0-3F65FBBD5A54}" name="Total Bet" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{8B9ED35C-24C5-6844-B237-43D33B16196A}" name="5-point chips"/>
     <tableColumn id="5" xr3:uid="{E4DF8B73-C3F7-C348-BBAC-F5854E3538E0}" name="10-point chips"/>
     <tableColumn id="6" xr3:uid="{0FF71DCD-2492-7143-B294-2EFF6F4A222D}" name="25-point chips"/>
-    <tableColumn id="7" xr3:uid="{5ECE13F4-1183-1844-B734-A3542720D868}" name="100-point chips" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{5ECE13F4-1183-1844-B734-A3542720D868}" name="100-point chips" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8579,7 +8609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5389194-3CFE-5849-A7F5-A7C6F5BECF20}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="303" workbookViewId="0">
+    <sheetView zoomScale="194" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9095,8 +9125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CF54A7-313D-D040-8161-1CFA5FC969B6}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="200" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9138,22 +9168,22 @@
       </c>
       <c r="B2" s="17">
         <f t="shared" ref="B2:B7" si="0">SUM(D2*0.05,E2*0.1,F2*0.25,G2*1)-C2</f>
-        <v>0</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -9162,22 +9192,22 @@
       </c>
       <c r="B3" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-14.1</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -9186,22 +9216,22 @@
       </c>
       <c r="B4" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.3000000000000007</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -9210,22 +9240,22 @@
       </c>
       <c r="B5" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -9258,22 +9288,22 @@
       </c>
       <c r="B7" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9295,23 +9325,23 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G9" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -9331,10 +9361,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9342,7 +9372,7 @@
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -9428,7 +9458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
@@ -9510,11 +9540,11 @@
       </c>
       <c r="U2" s="42">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V2" s="37">
         <f t="shared" ref="V2:V10" si="0">SUM(B2:U2)</f>
-        <v>55.449999999999989</v>
+        <v>59.449999999999989</v>
       </c>
       <c r="W2" s="47" t="s">
         <v>7</v>
@@ -9538,8 +9568,11 @@
          (-SUMIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0") / COUNTIF(Table27[[#This Row],[Day 1 ]:[Day 19]], "&lt;0")), "")</f>
         <v>1.2062189591880803</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
@@ -9650,7 +9683,7 @@
         <v>0.9212066636650158</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
@@ -9732,11 +9765,11 @@
       </c>
       <c r="U4" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V4" s="38">
         <f t="shared" si="0"/>
-        <v>-46.4</v>
+        <v>-38.4</v>
       </c>
       <c r="W4" s="45" t="s">
         <v>11</v>
@@ -9761,7 +9794,7 @@
         <v>0.44103547459252146</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
@@ -9843,11 +9876,11 @@
       </c>
       <c r="U5" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-1.3000000000000007</v>
       </c>
       <c r="V5" s="38">
         <f t="shared" si="0"/>
-        <v>-44.9</v>
+        <v>-46.2</v>
       </c>
       <c r="W5" s="45" t="s">
         <v>6</v>
@@ -9872,7 +9905,7 @@
         <v>0.53232664631487125</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>8</v>
       </c>
@@ -9954,11 +9987,11 @@
       </c>
       <c r="U6" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>-14.1</v>
       </c>
       <c r="V6" s="38">
         <f t="shared" si="0"/>
-        <v>56.3</v>
+        <v>42.199999999999996</v>
       </c>
       <c r="W6" s="45" t="s">
         <v>8</v>
@@ -9983,7 +10016,7 @@
         <v>1.5255555555555553</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
         <v>5</v>
       </c>
@@ -10065,11 +10098,11 @@
       </c>
       <c r="U7" s="20">
         <f>IFERROR(VLOOKUP(Table27[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>0</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>22.4</v>
+        <v>25.799999999999997</v>
       </c>
       <c r="W7" s="45" t="s">
         <v>5</v>
@@ -10094,7 +10127,7 @@
         <v>0.65852795470629866</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>22</v>
       </c>
@@ -10205,7 +10238,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>27</v>
       </c>
@@ -10316,7 +10349,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>50</v>
       </c>
@@ -10427,7 +10460,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="33"/>
@@ -10437,7 +10470,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>19</v>
       </c>
@@ -10523,7 +10556,7 @@
       </c>
       <c r="V12" s="34">
         <f>SUM(Table27[Σ])</f>
-        <v>-1.2434497875801753E-14</v>
+        <v>-2.6645352591003757E-14</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -10705,7 +10738,7 @@
       </c>
       <c r="V44" s="42">
         <f>U44+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>55.449999999999989</v>
+        <v>59.449999999999989</v>
       </c>
       <c r="W44" s="56"/>
     </row>
@@ -10971,7 +11004,7 @@
       </c>
       <c r="V47" s="38">
         <f>U47+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-46.4</v>
+        <v>-38.4</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -11059,7 +11092,7 @@
       </c>
       <c r="V48" s="38">
         <f>U48+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>-44.9</v>
+        <v>-46.2</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -11147,7 +11180,7 @@
       </c>
       <c r="V49" s="38">
         <f>U49+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>56.3</v>
+        <v>42.199999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -11323,7 +11356,7 @@
       </c>
       <c r="V51" s="38">
         <f>U51+IFERROR(VLOOKUP(MovingSum[[#This Row],[SPIELER]],Day_20[[SPIELER]:[WIN / LOSS]],2,FALSE),0)</f>
-        <v>22.4</v>
+        <v>25.799999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
